--- a/Zaoch/28/лаб1,3,4.xlsx
+++ b/Zaoch/28/лаб1,3,4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Лаба" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,13 +369,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -427,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -633,21 +626,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -678,17 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -716,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -775,21 +742,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -809,7 +775,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -824,19 +789,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -902,19 +860,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,6 +918,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,25 +948,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,8 +1286,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView topLeftCell="M17" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1318,7 @@
       </c>
     </row>
     <row r="2" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3">
@@ -1367,7 +1328,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="21">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -1377,16 +1338,16 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="21">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <f>(2.94+(0.032*C2) + (2.9*D2) + (2.62*E2))*E3</f>
-        <v>33987</v>
+        <v>21949.599999999999</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="23"/>
@@ -1405,17 +1366,17 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="E7" s="21">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1424,41 +1385,41 @@
       </c>
       <c r="C8" s="4">
         <f>C7*D7*E7</f>
-        <v>12870</v>
+        <v>25850</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="41">
         <f>C8*E9/E10</f>
-        <v>77220</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
+        <v>86166.666666666672</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -1474,57 +1435,57 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="E14" s="21">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="4">
         <f>PRODUCT(C14:E14)</f>
-        <v>8610</v>
+        <v>5301</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="21">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="42">
         <f>C15*E16/E17</f>
-        <v>51660</v>
+        <v>17670</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
@@ -1532,20 +1493,20 @@
     <row r="19" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:25" ht="16.2" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="47"/>
-      <c r="F21" s="49" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="67"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="65"/>
       <c r="X22" s="17"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
@@ -1568,25 +1529,25 @@
       <c r="G23" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H23" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="68" t="s">
+      <c r="J23" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="68" t="s">
+      <c r="K23" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="59" t="s">
+      <c r="M23" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="N23" s="69" t="s">
+      <c r="N23" s="67" t="s">
         <v>50</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -1618,182 +1579,182 @@
       <c r="A24" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="47">
-        <v>10</v>
-      </c>
-      <c r="C24" s="47">
+      <c r="B24" s="46">
+        <v>7</v>
+      </c>
+      <c r="C24" s="46">
+        <v>8</v>
+      </c>
+      <c r="D24" s="46">
+        <v>5</v>
+      </c>
+      <c r="E24" s="46">
+        <v>8</v>
+      </c>
+      <c r="F24" s="46">
+        <v>9</v>
+      </c>
+      <c r="G24" s="47">
         <v>3</v>
       </c>
-      <c r="D24" s="47">
-        <v>2</v>
-      </c>
-      <c r="E24" s="47">
-        <v>3</v>
-      </c>
-      <c r="F24" s="47">
-        <v>3</v>
-      </c>
-      <c r="G24" s="48">
-        <v>1</v>
-      </c>
-      <c r="H24" s="64">
+      <c r="H24" s="62">
         <f>SUM(B24:G24)+1</f>
-        <v>23</v>
-      </c>
-      <c r="I24" s="70">
-        <v>1418</v>
-      </c>
-      <c r="J24" s="70">
+        <v>41</v>
+      </c>
+      <c r="I24" s="68">
         <v>752</v>
       </c>
-      <c r="K24" s="60">
-        <v>1418</v>
-      </c>
-      <c r="L24" s="70">
-        <v>1048</v>
-      </c>
-      <c r="M24" s="70">
-        <v>1418</v>
-      </c>
-      <c r="N24" s="76">
-        <v>1418</v>
+      <c r="J24" s="68">
+        <v>752</v>
+      </c>
+      <c r="K24" s="68">
+        <v>752</v>
+      </c>
+      <c r="L24" s="68">
+        <v>752</v>
+      </c>
+      <c r="M24" s="68">
+        <v>752</v>
+      </c>
+      <c r="N24" s="68">
+        <v>752</v>
       </c>
       <c r="O24">
         <f>B24*$I$24</f>
-        <v>14180</v>
+        <v>5264</v>
       </c>
       <c r="P24">
         <f>J24*C24</f>
-        <v>2256</v>
+        <v>6016</v>
       </c>
       <c r="Q24">
         <f>D24*K$24</f>
-        <v>2836</v>
+        <v>3760</v>
       </c>
       <c r="R24">
         <f t="shared" ref="R24:S24" si="0">E24*L$24</f>
-        <v>3144</v>
+        <v>6016</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>4254</v>
+        <v>6768</v>
       </c>
       <c r="T24">
         <f>G24*N$24</f>
-        <v>1418</v>
+        <v>2256</v>
       </c>
       <c r="V24" s="2">
-        <v>1418</v>
+        <v>752</v>
       </c>
       <c r="W24" t="s">
         <v>15</v>
       </c>
       <c r="Y24" s="7">
         <f>SUM(O24:V24)</f>
-        <v>29506</v>
+        <v>30832</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="47">
-        <v>6</v>
-      </c>
-      <c r="C25" s="47">
+      <c r="B25" s="46">
+        <v>4</v>
+      </c>
+      <c r="C25" s="46">
+        <v>4</v>
+      </c>
+      <c r="D25" s="46">
+        <v>3</v>
+      </c>
+      <c r="E25" s="46">
+        <v>8</v>
+      </c>
+      <c r="F25" s="46">
+        <v>9</v>
+      </c>
+      <c r="G25" s="47">
         <v>2</v>
       </c>
-      <c r="D25" s="47">
-        <v>1</v>
-      </c>
-      <c r="E25" s="47">
-        <v>2</v>
-      </c>
-      <c r="F25" s="47">
-        <v>2</v>
-      </c>
-      <c r="G25" s="48">
-        <v>1</v>
-      </c>
-      <c r="I25" s="70">
-        <v>210</v>
-      </c>
-      <c r="J25" s="60">
-        <v>210</v>
-      </c>
-      <c r="K25" s="60">
+      <c r="I25" s="68">
+        <v>800</v>
+      </c>
+      <c r="J25" s="68">
+        <v>800</v>
+      </c>
+      <c r="K25" s="68">
+        <v>800</v>
+      </c>
+      <c r="L25" s="68">
+        <v>800</v>
+      </c>
+      <c r="M25" s="68">
+        <v>800</v>
+      </c>
+      <c r="N25" s="71">
         <v>190</v>
-      </c>
-      <c r="L25" s="60">
-        <v>210</v>
-      </c>
-      <c r="M25" s="60">
-        <v>190</v>
-      </c>
-      <c r="N25" s="75">
-        <v>210</v>
       </c>
       <c r="O25">
         <f>B25*I25</f>
-        <v>1260</v>
+        <v>3200</v>
       </c>
       <c r="P25">
         <f t="shared" ref="P25:T25" si="1">C25*J25</f>
-        <v>420</v>
+        <v>3200</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>2400</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>6400</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>7200</v>
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>380</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
       </c>
       <c r="Y25" s="7">
         <f>SUM(O25:V25)</f>
-        <v>2880</v>
+        <v>22780</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="47">
+      <c r="B26" s="46">
         <f>B24</f>
-        <v>10</v>
-      </c>
-      <c r="C26" s="47">
+        <v>7</v>
+      </c>
+      <c r="C26" s="46">
         <f t="shared" ref="C26:G26" si="2">C24</f>
-        <v>3</v>
-      </c>
-      <c r="D26" s="47">
+        <v>8</v>
+      </c>
+      <c r="D26" s="46">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="47">
+        <v>5</v>
+      </c>
+      <c r="E26" s="46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F26" s="46">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G26" s="46">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F26" s="47">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G26" s="47">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="70">
+      <c r="I26" s="68">
         <v>100</v>
       </c>
       <c r="J26" s="3"/>
@@ -1803,72 +1764,71 @@
       <c r="N26" s="21"/>
       <c r="O26">
         <f t="shared" ref="O26:T26" si="3">B26*$I$26</f>
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="P26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="S26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V26" s="2">
         <v>100</v>
       </c>
-      <c r="W26" s="49" t="s">
+      <c r="W26" s="48" t="s">
         <v>51</v>
       </c>
       <c r="Y26" s="7">
         <f>SUM(O26:V26)</f>
-        <v>2300</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <f>B24</f>
-        <v>10</v>
-      </c>
-      <c r="C27" s="47">
+        <v>7</v>
+      </c>
+      <c r="C27" s="46">
         <f t="shared" ref="C27:G27" si="4">C24</f>
-        <v>3</v>
-      </c>
-      <c r="D27" s="47">
+        <v>8</v>
+      </c>
+      <c r="D27" s="46">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="47">
+        <v>5</v>
+      </c>
+      <c r="E27" s="46">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="46">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G27" s="46">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F27" s="47">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G27" s="47">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="71">
-        <f>800+1200</f>
-        <v>2000</v>
-      </c>
-      <c r="J27" s="72" t="s">
+      <c r="I27" s="69">
+        <v>650</v>
+      </c>
+      <c r="J27" s="70" t="s">
         <v>43</v>
       </c>
       <c r="K27" s="22"/>
@@ -1877,37 +1837,37 @@
       <c r="N27" s="23"/>
       <c r="O27">
         <f t="shared" ref="O27:T27" si="5">B27*$I$27</f>
-        <v>20000</v>
+        <v>4550</v>
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="Q27">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>3250</v>
       </c>
       <c r="R27">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>5200</v>
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>6000</v>
+        <v>5850</v>
       </c>
       <c r="T27">
         <f t="shared" si="5"/>
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="V27" s="2">
-        <v>1200</v>
-      </c>
-      <c r="W27" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="W27" s="48" t="s">
         <v>44</v>
       </c>
       <c r="Y27" s="7">
         <f>SUM(O27:V27)</f>
-        <v>45200</v>
+        <v>26050</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1915,109 +1875,113 @@
         <v>12</v>
       </c>
       <c r="B28" s="33">
-        <v>12953</v>
+        <v>22160</v>
       </c>
       <c r="C28" s="33">
         <f>Стоимость_разработки!F11</f>
-        <v>16600</v>
+        <v>8871.4285714285706</v>
       </c>
       <c r="D28" s="33">
-        <v>12667</v>
+        <f>Стоимость_разработки!F16</f>
+        <v>35550</v>
       </c>
       <c r="E28" s="33">
-        <v>10160</v>
+        <f>Стоимость_разработки!F21</f>
+        <v>10000</v>
       </c>
       <c r="F28" s="33">
-        <v>18857</v>
-      </c>
-      <c r="G28" s="34">
-        <v>12953</v>
+        <f>Стоимость_разработки!F26</f>
+        <v>32760</v>
+      </c>
+      <c r="G28" s="33">
+        <f>Стоимость_разработки!F31</f>
+        <v>12687.5</v>
       </c>
       <c r="O28" s="7">
         <f>B28</f>
-        <v>12953</v>
+        <v>22160</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" ref="P28:T28" si="6">C28</f>
-        <v>16600</v>
+        <v>8871.4285714285706</v>
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="6"/>
-        <v>12667</v>
+        <v>35550</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="6"/>
-        <v>10160</v>
+        <v>10000</v>
       </c>
       <c r="S28" s="7">
         <f t="shared" si="6"/>
-        <v>18857</v>
+        <v>32760</v>
       </c>
       <c r="T28" s="7">
         <f t="shared" si="6"/>
-        <v>12953</v>
+        <v>12687.5</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
       </c>
       <c r="Y28" s="7">
         <f>SUM(O28:T28)</f>
-        <v>84190</v>
+        <v>122028.92857142858</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="U29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="V29" s="46">
+      <c r="V29" s="45">
         <f>T46</f>
-        <v>15105.333333333334</v>
-      </c>
-      <c r="W29" s="35"/>
-      <c r="Y29" s="46">
+        <v>12194.222222222223</v>
+      </c>
+      <c r="W29" s="34"/>
+      <c r="Y29" s="45">
         <f>V29</f>
-        <v>15105.333333333334</v>
+        <v>12194.222222222223</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="M30" t="s">
         <v>18</v>
       </c>
-      <c r="O30" s="61">
+      <c r="O30" s="59">
         <f t="shared" ref="O30:T30" si="7">O31/B32</f>
-        <v>4939.3</v>
-      </c>
-      <c r="P30" s="61">
+        <v>5124.8571428571431</v>
+      </c>
+      <c r="P30" s="59">
         <f t="shared" si="7"/>
-        <v>8525.3333333333339</v>
-      </c>
-      <c r="Q30" s="61">
+        <v>3010.9285714285716</v>
+      </c>
+      <c r="Q30" s="59">
         <f t="shared" si="7"/>
-        <v>9946.5</v>
-      </c>
-      <c r="R30" s="61">
+        <v>9092</v>
+      </c>
+      <c r="R30" s="59">
         <f t="shared" si="7"/>
-        <v>6674.666666666667</v>
-      </c>
-      <c r="S30" s="61">
+        <v>3552</v>
+      </c>
+      <c r="S30" s="59">
         <f t="shared" si="7"/>
-        <v>9930.3333333333339</v>
-      </c>
-      <c r="T30" s="61">
+        <v>5942</v>
+      </c>
+      <c r="T30" s="59">
         <f t="shared" si="7"/>
-        <v>16681</v>
+        <v>5857.833333333333</v>
       </c>
       <c r="U30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="V30" s="46">
+      <c r="V30" s="45">
         <f>U51</f>
-        <v>24131.25</v>
-      </c>
-      <c r="W30" s="35"/>
-      <c r="Y30" s="46">
+        <v>40390.625</v>
+      </c>
+      <c r="W30" s="34"/>
+      <c r="Y30" s="45">
         <f>V30</f>
-        <v>24131.25</v>
+        <v>40390.625</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -2026,39 +1990,39 @@
       </c>
       <c r="O31" s="7">
         <f t="shared" ref="O31:T31" si="8">SUM(O24:O28)</f>
-        <v>49393</v>
+        <v>35874</v>
       </c>
       <c r="P31" s="7">
         <f t="shared" si="8"/>
-        <v>25576</v>
+        <v>24087.428571428572</v>
       </c>
       <c r="Q31" s="7">
         <f t="shared" si="8"/>
-        <v>19893</v>
+        <v>45460</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>20024</v>
+        <v>28416</v>
       </c>
       <c r="S31" s="7">
         <f t="shared" si="8"/>
-        <v>29791</v>
+        <v>53478</v>
       </c>
       <c r="T31" s="7">
         <f t="shared" si="8"/>
-        <v>16681</v>
+        <v>17573.5</v>
       </c>
       <c r="U31" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="V31" s="46">
+      <c r="V31" s="45">
         <f>V50</f>
-        <v>12523.636363636362</v>
-      </c>
-      <c r="W31" s="35"/>
-      <c r="Y31" s="46">
+        <v>6425.454545454545</v>
+      </c>
+      <c r="W31" s="34"/>
+      <c r="Y31" s="45">
         <f>V31</f>
-        <v>12523.636363636362</v>
+        <v>6425.454545454545</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2067,53 +2031,53 @@
       </c>
       <c r="B32">
         <f>B24</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <f t="shared" ref="C32:G32" si="9">C24</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V32" s="45">
+      <c r="V32" s="44">
         <f>SUM(V24:V31)</f>
-        <v>54478.219696969696</v>
+        <v>59912.301767676763</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W33" s="8">
         <f>SUM(O31:T31,V32)</f>
-        <v>215836.2196969697</v>
+        <v>264801.23033910536</v>
       </c>
       <c r="Y33" s="8">
         <f>SUM(Y24:Y31)</f>
-        <v>215836.2196969697</v>
+        <v>264801.23033910536</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
       <c r="E34" s="149"/>
       <c r="F34" s="149"/>
       <c r="G34" s="149"/>
@@ -2121,7 +2085,7 @@
       <c r="I34" s="147"/>
       <c r="J34" s="147"/>
       <c r="K34" s="147"/>
-      <c r="L34" s="162"/>
+      <c r="L34" s="158"/>
       <c r="N34" s="146" t="s">
         <v>81</v>
       </c>
@@ -2131,14 +2095,14 @@
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
       <c r="T34" s="19"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="118"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="113"/>
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
     </row>
     <row r="35" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="17" t="s">
         <v>53</v>
       </c>
@@ -2146,7 +2110,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="151"/>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="95" t="s">
         <v>55</v>
       </c>
       <c r="F35" s="3"/>
@@ -2157,7 +2121,7 @@
       <c r="I35" s="148"/>
       <c r="J35" s="148"/>
       <c r="K35" s="148"/>
-      <c r="L35" s="156"/>
+      <c r="L35" s="152"/>
       <c r="N35" s="31"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2170,26 +2134,26 @@
       <c r="U35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="V35" s="89" t="s">
+      <c r="V35" s="84" t="s">
         <v>88</v>
       </c>
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
     </row>
     <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="72">
         <f>Стоимость_разработки!M3</f>
-        <v>35</v>
-      </c>
-      <c r="C36" s="77">
+        <v>40</v>
+      </c>
+      <c r="C36" s="72">
         <f>B$28/B36</f>
-        <v>370.08571428571429</v>
+        <v>554</v>
       </c>
       <c r="D36" s="151"/>
-      <c r="E36" s="85">
+      <c r="E36" s="80">
         <v>254</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2198,11 +2162,11 @@
       <c r="G36" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="81">
+      <c r="H36" s="76">
         <f>MAX(I45:I47)</f>
-        <v>116.11428571428571</v>
-      </c>
-      <c r="I36" s="105">
+        <v>266.66666666666663</v>
+      </c>
+      <c r="I36" s="100">
         <v>40</v>
       </c>
       <c r="J36" s="3" t="str">
@@ -2210,9 +2174,9 @@
         <v>п4</v>
       </c>
       <c r="K36" s="148"/>
-      <c r="L36" s="156"/>
+      <c r="L36" s="152"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="44" t="s">
+      <c r="N36" s="43" t="s">
         <v>60</v>
       </c>
       <c r="O36" s="5" t="s">
@@ -2228,33 +2192,33 @@
       </c>
       <c r="T36" s="7">
         <f>C4</f>
-        <v>33987</v>
+        <v>21949.599999999999</v>
       </c>
       <c r="U36" s="5">
         <f>E3</f>
-        <v>50</v>
-      </c>
-      <c r="V36" s="122">
+        <v>40</v>
+      </c>
+      <c r="V36" s="117">
         <f>T36/U36</f>
-        <v>679.74</v>
+        <v>548.74</v>
       </c>
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
     </row>
     <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="77">
+      <c r="B37" s="72">
         <f>Стоимость_разработки!M4</f>
-        <v>40</v>
-      </c>
-      <c r="C37" s="77">
+        <v>30</v>
+      </c>
+      <c r="C37" s="72">
         <f>C$28/B37</f>
-        <v>415</v>
+        <v>295.71428571428567</v>
       </c>
       <c r="D37" s="151"/>
-      <c r="E37" s="85">
+      <c r="E37" s="80">
         <v>316.66666666666669</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -2263,11 +2227,11 @@
       <c r="G37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="81">
+      <c r="H37" s="76">
         <f>MAX(H45:H47)</f>
-        <v>168.89333333333335</v>
-      </c>
-      <c r="I37" s="105">
+        <v>474</v>
+      </c>
+      <c r="I37" s="100">
         <v>40</v>
       </c>
       <c r="J37" s="3" t="str">
@@ -2275,12 +2239,12 @@
         <v>п3</v>
       </c>
       <c r="K37" s="148"/>
-      <c r="L37" s="156"/>
+      <c r="L37" s="152"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="44">
+      <c r="N37" s="43">
         <v>1</v>
       </c>
-      <c r="O37" s="120">
+      <c r="O37" s="115">
         <v>2.25</v>
       </c>
       <c r="P37" s="5">
@@ -2295,33 +2259,33 @@
       </c>
       <c r="T37" s="7">
         <f>C11</f>
-        <v>77220</v>
+        <v>86166.666666666672</v>
       </c>
       <c r="U37" s="5">
         <f>E9</f>
-        <v>30</v>
-      </c>
-      <c r="V37" s="122">
+        <v>20</v>
+      </c>
+      <c r="V37" s="117">
         <f t="shared" ref="V37:V38" si="11">T37/U37</f>
-        <v>2574</v>
+        <v>4308.3333333333339</v>
       </c>
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
     </row>
     <row r="38" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="77">
+      <c r="B38" s="72">
         <f>Стоимость_разработки!M5</f>
         <v>60</v>
       </c>
-      <c r="C38" s="77">
+      <c r="C38" s="72">
         <f>D$28/B38</f>
-        <v>211.11666666666667</v>
+        <v>592.5</v>
       </c>
       <c r="D38" s="151"/>
-      <c r="E38" s="85">
+      <c r="E38" s="80">
         <v>415</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2330,10 +2294,10 @@
       <c r="G38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H38" s="81">
+      <c r="H38" s="76">
         <v>277</v>
       </c>
-      <c r="I38" s="105">
+      <c r="I38" s="100">
         <v>24</v>
       </c>
       <c r="J38" s="3" t="str">
@@ -2341,18 +2305,18 @@
         <v>п2</v>
       </c>
       <c r="K38" s="148"/>
-      <c r="L38" s="156"/>
+      <c r="L38" s="152"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="125">
+      <c r="N38" s="120">
         <v>8</v>
       </c>
-      <c r="O38" s="126">
+      <c r="O38" s="121">
         <v>2.25</v>
       </c>
-      <c r="P38" s="81">
+      <c r="P38" s="76">
         <v>35</v>
       </c>
-      <c r="Q38" s="81" t="s">
+      <c r="Q38" s="76" t="s">
         <v>19</v>
       </c>
       <c r="R38" s="17"/>
@@ -2361,33 +2325,33 @@
       </c>
       <c r="T38" s="7">
         <f>C18</f>
-        <v>51660</v>
+        <v>17670</v>
       </c>
       <c r="U38" s="5">
         <f>E16</f>
-        <v>30</v>
-      </c>
-      <c r="V38" s="122">
+        <v>20</v>
+      </c>
+      <c r="V38" s="117">
         <f t="shared" si="11"/>
-        <v>1722</v>
+        <v>883.5</v>
       </c>
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
     </row>
     <row r="39" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="77">
+      <c r="B39" s="72">
         <f>Стоимость_разработки!M6</f>
-        <v>70</v>
-      </c>
-      <c r="C39" s="77">
+        <v>30</v>
+      </c>
+      <c r="C39" s="72">
         <f>E$28/B39</f>
-        <v>145.14285714285714</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="D39" s="151"/>
-      <c r="E39" s="85">
+      <c r="E39" s="80">
         <v>471.42857142857144</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2396,10 +2360,10 @@
       <c r="G39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="81">
+      <c r="H39" s="76">
         <v>314</v>
       </c>
-      <c r="I39" s="105">
+      <c r="I39" s="100">
         <v>24</v>
       </c>
       <c r="J39" s="3" t="str">
@@ -2407,12 +2371,12 @@
         <v>п5</v>
       </c>
       <c r="K39" s="148"/>
-      <c r="L39" s="156"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="44">
+      <c r="N39" s="43">
         <v>15</v>
       </c>
-      <c r="O39" s="120">
+      <c r="O39" s="115">
         <v>2.25</v>
       </c>
       <c r="P39" s="5">
@@ -2425,24 +2389,24 @@
       <c r="S39" s="17"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
-      <c r="V39" s="89"/>
+      <c r="V39" s="84"/>
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
     </row>
     <row r="40" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="77">
+      <c r="B40" s="72">
         <f>Стоимость_разработки!M7</f>
-        <v>50</v>
-      </c>
-      <c r="C40" s="77">
+        <v>70</v>
+      </c>
+      <c r="C40" s="72">
         <f>F$28/B40</f>
-        <v>377.14</v>
+        <v>468</v>
       </c>
       <c r="D40" s="151"/>
-      <c r="E40" s="85">
+      <c r="E40" s="80">
         <v>548</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -2451,11 +2415,11 @@
       <c r="G40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="81">
+      <c r="H40" s="76">
         <f>MIN(F45:F47)</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="I40" s="105">
+        <v>201.45454545454547</v>
+      </c>
+      <c r="I40" s="100">
         <v>29</v>
       </c>
       <c r="J40" s="3" t="str">
@@ -2463,12 +2427,12 @@
         <v>п1</v>
       </c>
       <c r="K40" s="148"/>
-      <c r="L40" s="156"/>
+      <c r="L40" s="152"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="44">
+      <c r="N40" s="43">
         <v>17</v>
       </c>
-      <c r="O40" s="120">
+      <c r="O40" s="115">
         <v>1.25</v>
       </c>
       <c r="P40" s="5">
@@ -2481,24 +2445,24 @@
       <c r="S40" s="17"/>
       <c r="T40" s="17"/>
       <c r="U40" s="17"/>
-      <c r="V40" s="101"/>
+      <c r="V40" s="96"/>
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
     </row>
     <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="77">
+      <c r="B41" s="72">
         <f>Стоимость_разработки!M8</f>
         <v>35</v>
       </c>
-      <c r="C41" s="77">
+      <c r="C41" s="72">
         <f t="shared" ref="C41" si="12">B$28/B41</f>
-        <v>370.08571428571429</v>
+        <v>633.14285714285711</v>
       </c>
       <c r="D41" s="151"/>
-      <c r="E41" s="85">
+      <c r="E41" s="80">
         <v>548</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2507,11 +2471,11 @@
       <c r="G41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="76">
         <f>MIN(K45:K47)</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="I41" s="105">
+        <v>230.23376623376623</v>
+      </c>
+      <c r="I41" s="100">
         <v>29</v>
       </c>
       <c r="J41" s="3" t="str">
@@ -2519,25 +2483,25 @@
         <v>п6</v>
       </c>
       <c r="K41" s="148"/>
-      <c r="L41" s="156"/>
+      <c r="L41" s="152"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="125">
+      <c r="N41" s="120">
         <v>19</v>
       </c>
-      <c r="O41" s="126">
+      <c r="O41" s="121">
         <v>2.75</v>
       </c>
-      <c r="P41" s="81">
+      <c r="P41" s="76">
         <v>20</v>
       </c>
-      <c r="Q41" s="81" t="s">
+      <c r="Q41" s="76" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
       <c r="U41" s="17"/>
-      <c r="V41" s="101"/>
+      <c r="V41" s="96"/>
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
     </row>
@@ -2546,19 +2510,19 @@
       <c r="B42" s="151"/>
       <c r="C42" s="151"/>
       <c r="D42" s="151"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="159"/>
-      <c r="K42" s="159"/>
-      <c r="L42" s="160"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="156"/>
       <c r="M42" s="17"/>
-      <c r="N42" s="44">
+      <c r="N42" s="43">
         <v>40</v>
       </c>
-      <c r="O42" s="120">
+      <c r="O42" s="115">
         <v>1</v>
       </c>
       <c r="P42" s="5">
@@ -2571,7 +2535,7 @@
       <c r="S42" s="17"/>
       <c r="T42" s="17"/>
       <c r="U42" s="17"/>
-      <c r="V42" s="101"/>
+      <c r="V42" s="96"/>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
     </row>
@@ -2586,68 +2550,68 @@
         <v>62</v>
       </c>
       <c r="D43" s="151"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="159"/>
-      <c r="H43" s="159"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="159"/>
-      <c r="K43" s="159"/>
-      <c r="L43" s="160"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="156"/>
       <c r="M43" s="17"/>
-      <c r="N43" s="125">
+      <c r="N43" s="120">
         <v>40</v>
       </c>
-      <c r="O43" s="126">
+      <c r="O43" s="121">
         <v>1.6</v>
       </c>
-      <c r="P43" s="81">
+      <c r="P43" s="76">
         <v>15</v>
       </c>
-      <c r="Q43" s="127" t="s">
+      <c r="Q43" s="122" t="s">
         <v>89</v>
       </c>
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
-      <c r="V43" s="101"/>
+      <c r="V43" s="96"/>
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
     </row>
     <row r="44" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="106">
+      <c r="A44" s="101">
         <v>24</v>
       </c>
-      <c r="B44" s="107">
+      <c r="B44" s="102">
         <v>1.5</v>
       </c>
-      <c r="C44" s="107">
+      <c r="C44" s="102">
         <v>60</v>
       </c>
       <c r="D44" s="151"/>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F44" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G44" s="79" t="s">
+      <c r="G44" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H44" s="79" t="s">
+      <c r="H44" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="79" t="s">
+      <c r="I44" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J44" s="79" t="s">
+      <c r="J44" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="80" t="s">
+      <c r="K44" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="161"/>
+      <c r="L44" s="157"/>
       <c r="M44" s="17"/>
       <c r="N44" s="31"/>
       <c r="O44" s="17"/>
@@ -2657,52 +2621,52 @@
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
       <c r="U44" s="17"/>
-      <c r="V44" s="101"/>
+      <c r="V44" s="96"/>
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
     </row>
     <row r="45" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="106">
+      <c r="A45" s="101">
         <v>29</v>
       </c>
-      <c r="B45" s="107">
+      <c r="B45" s="102">
         <v>2.75</v>
       </c>
-      <c r="C45" s="107">
+      <c r="C45" s="102">
         <v>65</v>
       </c>
       <c r="D45" s="151"/>
-      <c r="E45" s="104">
+      <c r="E45" s="99">
         <f>A44</f>
         <v>24</v>
       </c>
-      <c r="F45" s="86">
+      <c r="F45" s="81">
         <f>$C$36/$B44</f>
-        <v>246.72380952380954</v>
-      </c>
-      <c r="G45" s="96">
+        <v>369.33333333333331</v>
+      </c>
+      <c r="G45" s="91">
         <f>$C$37/$B44</f>
-        <v>276.66666666666669</v>
-      </c>
-      <c r="H45" s="87">
+        <v>197.14285714285711</v>
+      </c>
+      <c r="H45" s="82">
         <f>$C$38/$B44</f>
-        <v>140.74444444444444</v>
-      </c>
-      <c r="I45" s="87">
+        <v>395</v>
+      </c>
+      <c r="I45" s="82">
         <f>$C$39/$B44</f>
-        <v>96.761904761904759</v>
-      </c>
-      <c r="J45" s="96">
+        <v>222.2222222222222</v>
+      </c>
+      <c r="J45" s="91">
         <f>$C$40/$B44</f>
-        <v>251.42666666666665</v>
-      </c>
-      <c r="K45" s="88">
+        <v>312</v>
+      </c>
+      <c r="K45" s="83">
         <f>$C$41/$B44</f>
-        <v>246.72380952380954</v>
-      </c>
-      <c r="L45" s="161"/>
+        <v>422.09523809523807</v>
+      </c>
+      <c r="L45" s="157"/>
       <c r="M45" s="17"/>
-      <c r="N45" s="78" t="s">
+      <c r="N45" s="73" t="s">
         <v>85</v>
       </c>
       <c r="O45" s="19" t="s">
@@ -2715,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="R45" s="17"/>
-      <c r="S45" s="78" t="s">
+      <c r="S45" s="73" t="s">
         <v>86</v>
       </c>
       <c r="T45" s="19" t="s">
@@ -2731,76 +2695,76 @@
       <c r="X45" s="17"/>
     </row>
     <row r="46" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="106">
+      <c r="A46" s="101">
         <v>40</v>
       </c>
-      <c r="B46" s="107">
+      <c r="B46" s="102">
         <v>1.25</v>
       </c>
-      <c r="C46" s="107">
+      <c r="C46" s="102">
         <v>50</v>
       </c>
       <c r="D46" s="151"/>
-      <c r="E46" s="82">
+      <c r="E46" s="77">
         <f t="shared" ref="E46:E47" si="13">A45</f>
         <v>29</v>
       </c>
-      <c r="F46" s="95">
+      <c r="F46" s="90">
         <f t="shared" ref="F46:F47" si="14">$C$36/$B45</f>
-        <v>134.57662337662339</v>
+        <v>201.45454545454547</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" ref="G46:G47" si="15">$C$37/$B45</f>
-        <v>150.90909090909091</v>
+        <v>107.53246753246752</v>
       </c>
       <c r="H46" s="5">
         <f t="shared" ref="H46:H47" si="16">$C$38/$B45</f>
-        <v>76.769696969696966</v>
+        <v>215.45454545454547</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" ref="I46:I47" si="17">$C$39/$B45</f>
-        <v>52.779220779220779</v>
+        <v>121.2121212121212</v>
       </c>
       <c r="J46" s="5">
         <f t="shared" ref="J46:J47" si="18">$C$40/$B45</f>
-        <v>137.14181818181817</v>
-      </c>
-      <c r="K46" s="83">
+        <v>170.18181818181819</v>
+      </c>
+      <c r="K46" s="78">
         <f t="shared" ref="K46:K47" si="19">$C$41/$B45</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="L46" s="161"/>
+        <v>230.23376623376623</v>
+      </c>
+      <c r="L46" s="157"/>
       <c r="M46" s="17"/>
-      <c r="N46" s="98">
+      <c r="N46" s="93">
         <v>1</v>
       </c>
-      <c r="O46" s="121">
+      <c r="O46" s="116">
         <f>$V$36/O37</f>
-        <v>302.10666666666668</v>
-      </c>
-      <c r="P46" s="86">
+        <v>243.88444444444445</v>
+      </c>
+      <c r="P46" s="81">
         <f>$V$37/O37</f>
-        <v>1144</v>
-      </c>
-      <c r="Q46" s="93">
+        <v>1914.814814814815</v>
+      </c>
+      <c r="Q46" s="88">
         <f>$V$38/O37</f>
-        <v>765.33333333333337</v>
+        <v>392.66666666666669</v>
       </c>
       <c r="R46" s="17"/>
-      <c r="S46" s="98">
+      <c r="S46" s="93">
         <v>1</v>
       </c>
-      <c r="T46" s="121">
+      <c r="T46" s="116">
         <f>O46*P37</f>
-        <v>15105.333333333334</v>
-      </c>
-      <c r="U46" s="86">
+        <v>12194.222222222223</v>
+      </c>
+      <c r="U46" s="81">
         <f>P46*P37</f>
-        <v>57200</v>
-      </c>
-      <c r="V46" s="93">
+        <v>95740.740740740745</v>
+      </c>
+      <c r="V46" s="88">
         <f>Q46*P37</f>
-        <v>38266.666666666672</v>
+        <v>19633.333333333336</v>
       </c>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
@@ -2810,66 +2774,66 @@
       <c r="B47" s="151"/>
       <c r="C47" s="151"/>
       <c r="D47" s="151"/>
-      <c r="E47" s="104">
+      <c r="E47" s="99">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="F47" s="90">
+      <c r="F47" s="85">
         <f t="shared" si="14"/>
-        <v>296.06857142857143</v>
-      </c>
-      <c r="G47" s="91">
+        <v>443.2</v>
+      </c>
+      <c r="G47" s="86">
         <f t="shared" si="15"/>
-        <v>332</v>
-      </c>
-      <c r="H47" s="84">
+        <v>236.57142857142853</v>
+      </c>
+      <c r="H47" s="79">
         <f t="shared" si="16"/>
-        <v>168.89333333333335</v>
-      </c>
-      <c r="I47" s="84">
+        <v>474</v>
+      </c>
+      <c r="I47" s="79">
         <f t="shared" si="17"/>
-        <v>116.11428571428571</v>
-      </c>
-      <c r="J47" s="91">
+        <v>266.66666666666663</v>
+      </c>
+      <c r="J47" s="86">
         <f t="shared" si="18"/>
-        <v>301.71199999999999</v>
-      </c>
-      <c r="K47" s="92">
+        <v>374.4</v>
+      </c>
+      <c r="K47" s="87">
         <f t="shared" si="19"/>
-        <v>296.06857142857143</v>
-      </c>
-      <c r="L47" s="161"/>
+        <v>506.51428571428568</v>
+      </c>
+      <c r="L47" s="157"/>
       <c r="M47" s="17"/>
-      <c r="N47" s="44">
+      <c r="N47" s="43">
         <v>8</v>
       </c>
-      <c r="O47" s="86">
+      <c r="O47" s="81">
         <f t="shared" ref="O47:O51" si="20">$V$36/O38</f>
-        <v>302.10666666666668</v>
-      </c>
-      <c r="P47" s="86">
+        <v>243.88444444444445</v>
+      </c>
+      <c r="P47" s="81">
         <f t="shared" ref="P47:P50" si="21">$V$37/O38</f>
-        <v>1144</v>
-      </c>
-      <c r="Q47" s="93">
+        <v>1914.814814814815</v>
+      </c>
+      <c r="Q47" s="88">
         <f t="shared" ref="Q47:Q50" si="22">$V$38/O38</f>
-        <v>765.33333333333337</v>
+        <v>392.66666666666669</v>
       </c>
       <c r="R47" s="17"/>
-      <c r="S47" s="44">
+      <c r="S47" s="43">
         <v>8</v>
       </c>
-      <c r="T47" s="86">
+      <c r="T47" s="81">
         <f t="shared" ref="T47:T51" si="23">O47*P38</f>
-        <v>10573.733333333334</v>
-      </c>
-      <c r="U47" s="86">
+        <v>8535.9555555555562</v>
+      </c>
+      <c r="U47" s="81">
         <f t="shared" ref="U47:U50" si="24">P47*P38</f>
-        <v>40040</v>
-      </c>
-      <c r="V47" s="93">
+        <v>67018.518518518526</v>
+      </c>
+      <c r="V47" s="88">
         <f t="shared" ref="V47:V50" si="25">Q47*P38</f>
-        <v>26786.666666666668</v>
+        <v>13743.333333333334</v>
       </c>
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
@@ -2886,38 +2850,38 @@
       <c r="I48" s="148"/>
       <c r="J48" s="148"/>
       <c r="K48" s="148"/>
-      <c r="L48" s="156"/>
+      <c r="L48" s="152"/>
       <c r="M48" s="17"/>
-      <c r="N48" s="44">
+      <c r="N48" s="43">
         <v>15</v>
       </c>
-      <c r="O48" s="86">
+      <c r="O48" s="81">
         <f t="shared" si="20"/>
-        <v>302.10666666666668</v>
-      </c>
-      <c r="P48" s="86">
+        <v>243.88444444444445</v>
+      </c>
+      <c r="P48" s="81">
         <f t="shared" si="21"/>
-        <v>1144</v>
-      </c>
-      <c r="Q48" s="93">
+        <v>1914.814814814815</v>
+      </c>
+      <c r="Q48" s="88">
         <f t="shared" si="22"/>
-        <v>765.33333333333337</v>
+        <v>392.66666666666669</v>
       </c>
       <c r="R48" s="17"/>
-      <c r="S48" s="44">
+      <c r="S48" s="43">
         <v>15</v>
       </c>
-      <c r="T48" s="86">
+      <c r="T48" s="81">
         <f t="shared" si="23"/>
-        <v>9667.4133333333339</v>
-      </c>
-      <c r="U48" s="86">
+        <v>7804.3022222222226</v>
+      </c>
+      <c r="U48" s="81">
         <f t="shared" si="24"/>
-        <v>36608</v>
-      </c>
-      <c r="V48" s="93">
+        <v>61274.07407407408</v>
+      </c>
+      <c r="V48" s="88">
         <f t="shared" si="25"/>
-        <v>24490.666666666668</v>
+        <v>12565.333333333334</v>
       </c>
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
@@ -2934,38 +2898,38 @@
       <c r="I49" s="148"/>
       <c r="J49" s="148"/>
       <c r="K49" s="148"/>
-      <c r="L49" s="156"/>
+      <c r="L49" s="152"/>
       <c r="M49" s="17"/>
-      <c r="N49" s="44">
+      <c r="N49" s="43">
         <v>17</v>
       </c>
-      <c r="O49" s="86">
+      <c r="O49" s="81">
         <f t="shared" si="20"/>
-        <v>543.79200000000003</v>
-      </c>
-      <c r="P49" s="86">
+        <v>438.99200000000002</v>
+      </c>
+      <c r="P49" s="81">
         <f t="shared" si="21"/>
-        <v>2059.1999999999998</v>
-      </c>
-      <c r="Q49" s="93">
+        <v>3446.666666666667</v>
+      </c>
+      <c r="Q49" s="88">
         <f t="shared" si="22"/>
-        <v>1377.6</v>
+        <v>706.8</v>
       </c>
       <c r="R49" s="17"/>
-      <c r="S49" s="44">
+      <c r="S49" s="43">
         <v>17</v>
       </c>
-      <c r="T49" s="86">
+      <c r="T49" s="81">
         <f t="shared" si="23"/>
-        <v>9788.2560000000012</v>
-      </c>
-      <c r="U49" s="86">
+        <v>7901.8560000000007</v>
+      </c>
+      <c r="U49" s="81">
         <f t="shared" si="24"/>
-        <v>37065.599999999999</v>
-      </c>
-      <c r="V49" s="93">
+        <v>62040.000000000007</v>
+      </c>
+      <c r="V49" s="88">
         <f t="shared" si="25"/>
-        <v>24796.799999999999</v>
+        <v>12722.4</v>
       </c>
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
@@ -2982,38 +2946,38 @@
       <c r="I50" s="148"/>
       <c r="J50" s="148"/>
       <c r="K50" s="148"/>
-      <c r="L50" s="156"/>
+      <c r="L50" s="152"/>
       <c r="M50" s="17"/>
-      <c r="N50" s="44">
+      <c r="N50" s="43">
         <v>19</v>
       </c>
-      <c r="O50" s="86">
+      <c r="O50" s="81">
         <f t="shared" si="20"/>
-        <v>247.17818181818183</v>
-      </c>
-      <c r="P50" s="86">
+        <v>199.54181818181817</v>
+      </c>
+      <c r="P50" s="81">
         <f t="shared" si="21"/>
-        <v>936</v>
-      </c>
-      <c r="Q50" s="128">
+        <v>1566.666666666667</v>
+      </c>
+      <c r="Q50" s="123">
         <f t="shared" si="22"/>
-        <v>626.18181818181813</v>
+        <v>321.27272727272725</v>
       </c>
       <c r="R50" s="17"/>
-      <c r="S50" s="44">
+      <c r="S50" s="43">
         <v>19</v>
       </c>
-      <c r="T50" s="86">
+      <c r="T50" s="81">
         <f t="shared" si="23"/>
-        <v>4943.5636363636368</v>
-      </c>
-      <c r="U50" s="86">
+        <v>3990.8363636363633</v>
+      </c>
+      <c r="U50" s="81">
         <f t="shared" si="24"/>
-        <v>18720</v>
-      </c>
-      <c r="V50" s="128">
+        <v>31333.333333333339</v>
+      </c>
+      <c r="V50" s="123">
         <f t="shared" si="25"/>
-        <v>12523.636363636362</v>
+        <v>6425.454545454545</v>
       </c>
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
@@ -3023,59 +2987,59 @@
       <c r="B51" s="151"/>
       <c r="C51" s="151"/>
       <c r="D51" s="151"/>
-      <c r="E51" s="78" t="s">
+      <c r="E51" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="79" t="s">
+      <c r="G51" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="79" t="s">
+      <c r="H51" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="79" t="s">
+      <c r="I51" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="79" t="s">
+      <c r="J51" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="K51" s="80" t="s">
+      <c r="K51" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="156"/>
+      <c r="L51" s="152"/>
       <c r="M51" s="17"/>
-      <c r="N51" s="102">
+      <c r="N51" s="97">
         <v>40</v>
       </c>
-      <c r="O51" s="123">
+      <c r="O51" s="118">
         <f t="shared" si="20"/>
-        <v>679.74</v>
-      </c>
-      <c r="P51" s="129">
+        <v>548.74</v>
+      </c>
+      <c r="P51" s="124">
         <f>$V$37/O43</f>
-        <v>1608.75</v>
-      </c>
-      <c r="Q51" s="124">
+        <v>2692.7083333333335</v>
+      </c>
+      <c r="Q51" s="119">
         <f>$V$38/O43</f>
-        <v>1076.25</v>
+        <v>552.1875</v>
       </c>
       <c r="R51" s="17"/>
-      <c r="S51" s="102">
+      <c r="S51" s="97">
         <v>40</v>
       </c>
-      <c r="T51" s="123">
+      <c r="T51" s="118">
         <f t="shared" si="23"/>
-        <v>16993.5</v>
-      </c>
-      <c r="U51" s="129">
+        <v>13718.5</v>
+      </c>
+      <c r="U51" s="124">
         <f>P51*P43</f>
-        <v>24131.25</v>
-      </c>
-      <c r="V51" s="124">
+        <v>40390.625</v>
+      </c>
+      <c r="V51" s="119">
         <f>Q51*P43</f>
-        <v>16143.75</v>
+        <v>8282.8125</v>
       </c>
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
@@ -3085,35 +3049,35 @@
       <c r="B52" s="151"/>
       <c r="C52" s="151"/>
       <c r="D52" s="151"/>
-      <c r="E52" s="104">
+      <c r="E52" s="99">
         <f>A44</f>
         <v>24</v>
       </c>
       <c r="F52" s="5">
         <f>F45*$C$44</f>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="G52" s="81">
+        <v>22160</v>
+      </c>
+      <c r="G52" s="76">
         <f t="shared" ref="G52:K52" si="26">G45*$C$44</f>
-        <v>16600</v>
+        <v>11828.571428571428</v>
       </c>
       <c r="H52" s="5">
         <f t="shared" si="26"/>
-        <v>8444.6666666666661</v>
+        <v>23700</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="26"/>
-        <v>5805.7142857142853</v>
-      </c>
-      <c r="J52" s="81">
+        <v>13333.333333333332</v>
+      </c>
+      <c r="J52" s="76">
         <f t="shared" si="26"/>
-        <v>15085.599999999999</v>
-      </c>
-      <c r="K52" s="93">
+        <v>18720</v>
+      </c>
+      <c r="K52" s="88">
         <f t="shared" si="26"/>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="L52" s="156"/>
+        <v>25325.714285714283</v>
+      </c>
+      <c r="L52" s="152"/>
       <c r="M52" s="17"/>
       <c r="N52" s="31"/>
       <c r="O52" s="17"/>
@@ -3123,7 +3087,7 @@
       <c r="S52" s="17"/>
       <c r="T52" s="17"/>
       <c r="U52" s="17"/>
-      <c r="V52" s="101"/>
+      <c r="V52" s="96"/>
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
     </row>
@@ -3132,37 +3096,37 @@
       <c r="B53" s="151"/>
       <c r="C53" s="151"/>
       <c r="D53" s="151"/>
-      <c r="E53" s="104">
+      <c r="E53" s="99">
         <f t="shared" ref="E53:E54" si="27">A45</f>
         <v>29</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="76">
         <f>$C$45*F46</f>
-        <v>8747.4805194805194</v>
+        <v>13094.545454545456</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" ref="G53:K53" si="28">$C$45*G46</f>
-        <v>9809.0909090909081</v>
+        <v>6989.6103896103887</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" si="28"/>
-        <v>4990.030303030303</v>
+        <v>14004.545454545456</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" si="28"/>
-        <v>3430.6493506493507</v>
+        <v>7878.7878787878781</v>
       </c>
       <c r="J53" s="5">
         <f t="shared" si="28"/>
-        <v>8914.2181818181816</v>
-      </c>
-      <c r="K53" s="97">
+        <v>11061.818181818182</v>
+      </c>
+      <c r="K53" s="92">
         <f t="shared" si="28"/>
-        <v>8747.4805194805194</v>
-      </c>
-      <c r="L53" s="156"/>
+        <v>14965.194805194806</v>
+      </c>
+      <c r="L53" s="152"/>
       <c r="M53" s="17"/>
-      <c r="N53" s="44"/>
+      <c r="N53" s="43"/>
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="17"/>
@@ -3170,7 +3134,7 @@
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
       <c r="U53" s="17"/>
-      <c r="V53" s="101"/>
+      <c r="V53" s="96"/>
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
     </row>
@@ -3179,37 +3143,37 @@
       <c r="B54" s="151"/>
       <c r="C54" s="151"/>
       <c r="D54" s="151"/>
-      <c r="E54" s="104">
+      <c r="E54" s="99">
         <f t="shared" si="27"/>
         <v>40</v>
       </c>
-      <c r="F54" s="91">
+      <c r="F54" s="86">
         <f>F47*$C$46</f>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="G54" s="91">
+        <v>22160</v>
+      </c>
+      <c r="G54" s="86">
         <f t="shared" ref="G54:K54" si="29">G47*$C$46</f>
-        <v>16600</v>
-      </c>
-      <c r="H54" s="84">
+        <v>11828.571428571426</v>
+      </c>
+      <c r="H54" s="79">
         <f t="shared" si="29"/>
-        <v>8444.6666666666679</v>
-      </c>
-      <c r="I54" s="84">
+        <v>23700</v>
+      </c>
+      <c r="I54" s="79">
         <f t="shared" si="29"/>
-        <v>5805.7142857142853</v>
-      </c>
-      <c r="J54" s="91">
+        <v>13333.333333333332</v>
+      </c>
+      <c r="J54" s="86">
         <f t="shared" si="29"/>
-        <v>15085.599999999999</v>
-      </c>
-      <c r="K54" s="94">
+        <v>18720</v>
+      </c>
+      <c r="K54" s="89">
         <f t="shared" si="29"/>
-        <v>14803.428571428572</v>
-      </c>
-      <c r="L54" s="156"/>
+        <v>25325.714285714283</v>
+      </c>
+      <c r="L54" s="152"/>
       <c r="M54" s="17"/>
-      <c r="N54" s="44"/>
+      <c r="N54" s="43"/>
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="17"/>
@@ -3217,143 +3181,143 @@
       <c r="S54" s="17"/>
       <c r="T54" s="17"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="101"/>
+      <c r="V54" s="96"/>
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="143"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="158"/>
-      <c r="J55" s="158"/>
-      <c r="K55" s="158"/>
-      <c r="L55" s="157"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="153"/>
       <c r="M55" s="17"/>
-      <c r="N55" s="102"/>
-      <c r="O55" s="103"/>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="103"/>
-      <c r="R55" s="103"/>
-      <c r="S55" s="103"/>
-      <c r="T55" s="103"/>
-      <c r="U55" s="103"/>
-      <c r="V55" s="119"/>
+      <c r="N55" s="97"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="98"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="114"/>
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="140"/>
-      <c r="B56" s="141"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="142"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="138"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
-      <c r="N56" s="130" t="s">
+      <c r="N56" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="134" t="s">
+      <c r="O56" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="112" t="s">
+      <c r="P56" s="131"/>
+      <c r="Q56" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="132" t="s">
+      <c r="R56" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="S56" s="134" t="s">
+      <c r="S56" s="130" t="s">
         <v>71</v>
       </c>
-      <c r="T56" s="135"/>
+      <c r="T56" s="131"/>
       <c r="U56" s="17"/>
       <c r="V56" s="17"/>
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="143"/>
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="145"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="141"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
       <c r="L57" s="17"/>
       <c r="M57" s="17"/>
-      <c r="N57" s="131" t="s">
+      <c r="N57" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="136"/>
-      <c r="P57" s="137"/>
-      <c r="Q57" s="113" t="s">
+      <c r="O57" s="132"/>
+      <c r="P57" s="133"/>
+      <c r="Q57" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="133"/>
-      <c r="S57" s="136" t="s">
+      <c r="R57" s="129"/>
+      <c r="S57" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="T57" s="137"/>
+      <c r="T57" s="133"/>
       <c r="U57" s="17"/>
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
     </row>
     <row r="58" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="152" t="s">
+      <c r="B58" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="153"/>
-      <c r="D58" s="112" t="s">
+      <c r="C58" s="143"/>
+      <c r="D58" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="152" t="s">
+      <c r="E58" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="153"/>
-      <c r="G58" s="152" t="s">
+      <c r="F58" s="143"/>
+      <c r="G58" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="153"/>
+      <c r="H58" s="143"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="110"/>
-      <c r="O58" s="138" t="s">
+      <c r="N58" s="105"/>
+      <c r="O58" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="P58" s="113" t="s">
+      <c r="P58" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="Q58" s="114"/>
-      <c r="R58" s="138" t="s">
+      <c r="Q58" s="109"/>
+      <c r="R58" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="138" t="s">
+      <c r="S58" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="T58" s="113" t="s">
+      <c r="T58" s="108" t="s">
         <v>77</v>
       </c>
       <c r="U58" s="17"/>
@@ -3362,34 +3326,34 @@
       <c r="X58" s="17"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="113" t="s">
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
+      <c r="D59" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="154"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="154" t="s">
+      <c r="E59" s="144"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="155"/>
+      <c r="H59" s="145"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="139"/>
-      <c r="P59" s="62" t="s">
+      <c r="N59" s="106"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="139"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="62" t="s">
+      <c r="Q59" s="110"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
+      <c r="T59" s="60" t="s">
         <v>79</v>
       </c>
       <c r="U59" s="17"/>
@@ -3398,24 +3362,24 @@
       <c r="X59" s="17"/>
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="110"/>
-      <c r="B60" s="138" t="s">
+      <c r="A60" s="105"/>
+      <c r="B60" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="114"/>
-      <c r="E60" s="138" t="s">
+      <c r="D60" s="109"/>
+      <c r="E60" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="138" t="s">
+      <c r="F60" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="138" t="s">
+      <c r="G60" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="H60" s="113" t="s">
+      <c r="H60" s="108" t="s">
         <v>77</v>
       </c>
       <c r="I60" s="17"/>
@@ -3423,25 +3387,25 @@
       <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
-      <c r="N60" s="52">
+      <c r="N60" s="51">
         <v>8</v>
       </c>
-      <c r="O60" s="62">
+      <c r="O60" s="60">
         <v>2.25</v>
       </c>
-      <c r="P60" s="53">
+      <c r="P60" s="52">
         <v>35</v>
       </c>
-      <c r="Q60" s="53" t="s">
+      <c r="Q60" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="53">
+      <c r="R60" s="52">
         <v>679.7</v>
       </c>
-      <c r="S60" s="53">
+      <c r="S60" s="52">
         <v>302</v>
       </c>
-      <c r="T60" s="62">
+      <c r="T60" s="60">
         <v>15105</v>
       </c>
       <c r="U60" s="17"/>
@@ -3450,16 +3414,16 @@
       <c r="X60" s="17"/>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="111"/>
-      <c r="B61" s="139"/>
-      <c r="C61" s="62" t="s">
+      <c r="A61" s="106"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="115"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="62" t="s">
+      <c r="D61" s="110"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="60" t="s">
         <v>79</v>
       </c>
       <c r="I61" s="17"/>
@@ -3467,25 +3431,25 @@
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
-      <c r="N61" s="52">
+      <c r="N61" s="51">
         <v>40</v>
       </c>
-      <c r="O61" s="53">
+      <c r="O61" s="52">
         <v>1.6</v>
       </c>
-      <c r="P61" s="62">
+      <c r="P61" s="60">
         <v>15</v>
       </c>
-      <c r="Q61" s="53" t="s">
+      <c r="Q61" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="53">
+      <c r="R61" s="52">
         <v>2574</v>
       </c>
-      <c r="S61" s="53">
+      <c r="S61" s="52">
         <v>1609</v>
       </c>
-      <c r="T61" s="53">
+      <c r="T61" s="52">
         <v>24131</v>
       </c>
       <c r="U61" s="17"/>
@@ -3498,57 +3462,57 @@
         <f>A44</f>
         <v>24</v>
       </c>
-      <c r="B62" s="53">
+      <c r="B62" s="52">
         <f>B44</f>
         <v>1.5</v>
       </c>
-      <c r="C62" s="53">
+      <c r="C62" s="52">
         <f>C44</f>
         <v>60</v>
       </c>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="116">
+      <c r="E62" s="111">
         <f>E38</f>
         <v>415</v>
       </c>
-      <c r="F62" s="116">
+      <c r="F62" s="111">
         <f>C28</f>
-        <v>16600</v>
-      </c>
-      <c r="G62" s="116">
+        <v>8871.4285714285706</v>
+      </c>
+      <c r="G62" s="111">
         <f>H38</f>
         <v>277</v>
       </c>
-      <c r="H62" s="116">
+      <c r="H62" s="111">
         <f>G52</f>
-        <v>16600</v>
+        <v>11828.571428571428</v>
       </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
       <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
-      <c r="N62" s="52">
+      <c r="N62" s="51">
         <v>19</v>
       </c>
-      <c r="O62" s="53">
+      <c r="O62" s="52">
         <v>2.75</v>
       </c>
-      <c r="P62" s="53">
+      <c r="P62" s="52">
         <v>20</v>
       </c>
-      <c r="Q62" s="53" t="s">
+      <c r="Q62" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="R62" s="53">
+      <c r="R62" s="52">
         <v>1722</v>
       </c>
-      <c r="S62" s="53">
+      <c r="S62" s="52">
         <v>626</v>
       </c>
-      <c r="T62" s="53">
+      <c r="T62" s="52">
         <v>12524</v>
       </c>
       <c r="U62" s="17"/>
@@ -3561,32 +3525,32 @@
         <f t="shared" ref="A63:C64" si="30">A44</f>
         <v>24</v>
       </c>
-      <c r="B63" s="53">
+      <c r="B63" s="52">
         <f t="shared" si="30"/>
         <v>1.5</v>
       </c>
-      <c r="C63" s="53">
+      <c r="C63" s="52">
         <f t="shared" si="30"/>
         <v>60</v>
       </c>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="116">
+      <c r="E63" s="111">
         <f>E39</f>
         <v>471.42857142857144</v>
       </c>
-      <c r="F63" s="116">
+      <c r="F63" s="111">
         <f>F28</f>
-        <v>18857</v>
-      </c>
-      <c r="G63" s="116">
+        <v>32760</v>
+      </c>
+      <c r="G63" s="111">
         <f>H39</f>
         <v>314</v>
       </c>
-      <c r="H63" s="116">
+      <c r="H63" s="111">
         <f>J52</f>
-        <v>15085.599999999999</v>
+        <v>18720</v>
       </c>
       <c r="I63" s="17"/>
       <c r="J63" s="17"/>
@@ -3610,32 +3574,32 @@
         <f t="shared" si="30"/>
         <v>29</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="52">
         <f t="shared" si="30"/>
         <v>2.75</v>
       </c>
-      <c r="C64" s="53">
+      <c r="C64" s="52">
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="116">
+      <c r="E64" s="111">
         <f>E40</f>
         <v>548</v>
       </c>
-      <c r="F64" s="116">
+      <c r="F64" s="111">
         <f>B28</f>
-        <v>12953</v>
-      </c>
-      <c r="G64" s="116">
+        <v>22160</v>
+      </c>
+      <c r="G64" s="111">
         <f>H40</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="H64" s="116">
+        <v>201.45454545454547</v>
+      </c>
+      <c r="H64" s="111">
         <f>F53</f>
-        <v>8747.4805194805194</v>
+        <v>13094.545454545456</v>
       </c>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -3659,32 +3623,32 @@
         <f t="shared" ref="A65:C66" si="31">A45</f>
         <v>29</v>
       </c>
-      <c r="B65" s="53">
+      <c r="B65" s="52">
         <f t="shared" si="31"/>
         <v>2.75</v>
       </c>
-      <c r="C65" s="53">
+      <c r="C65" s="52">
         <f t="shared" si="31"/>
         <v>65</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="116">
+      <c r="E65" s="111">
         <f>E41</f>
         <v>548</v>
       </c>
-      <c r="F65" s="116">
+      <c r="F65" s="111">
         <f>G28</f>
-        <v>12953</v>
-      </c>
-      <c r="G65" s="116">
+        <v>12687.5</v>
+      </c>
+      <c r="G65" s="111">
         <f>H41</f>
-        <v>134.57662337662339</v>
-      </c>
-      <c r="H65" s="116">
+        <v>230.23376623376623</v>
+      </c>
+      <c r="H65" s="111">
         <f>K53</f>
-        <v>8747.4805194805194</v>
+        <v>14965.194805194806</v>
       </c>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -3704,36 +3668,36 @@
       <c r="X65" s="17"/>
     </row>
     <row r="66" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="52">
+      <c r="A66" s="51">
         <f t="shared" si="31"/>
         <v>40</v>
       </c>
-      <c r="B66" s="53">
+      <c r="B66" s="52">
         <f t="shared" si="31"/>
         <v>1.25</v>
       </c>
-      <c r="C66" s="53">
+      <c r="C66" s="52">
         <f t="shared" si="31"/>
         <v>50</v>
       </c>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E66" s="116">
+      <c r="E66" s="111">
         <f>E37</f>
         <v>316.66666666666669</v>
       </c>
-      <c r="F66" s="116">
+      <c r="F66" s="111">
         <f>D28</f>
-        <v>12667</v>
-      </c>
-      <c r="G66" s="116">
+        <v>35550</v>
+      </c>
+      <c r="G66" s="111">
         <f>H37</f>
-        <v>168.89333333333335</v>
-      </c>
-      <c r="H66" s="116">
+        <v>474</v>
+      </c>
+      <c r="H66" s="111">
         <f>H54</f>
-        <v>8444.6666666666679</v>
+        <v>23700</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -3757,32 +3721,32 @@
         <f>A46</f>
         <v>40</v>
       </c>
-      <c r="B67" s="62">
+      <c r="B67" s="60">
         <f>B46</f>
         <v>1.25</v>
       </c>
-      <c r="C67" s="62">
+      <c r="C67" s="60">
         <f>C46</f>
         <v>50</v>
       </c>
-      <c r="D67" s="62" t="s">
+      <c r="D67" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E67" s="117">
+      <c r="E67" s="112">
         <f>E36</f>
         <v>254</v>
       </c>
-      <c r="F67" s="117">
+      <c r="F67" s="112">
         <f>E28</f>
-        <v>10160</v>
-      </c>
-      <c r="G67" s="117">
+        <v>10000</v>
+      </c>
+      <c r="G67" s="112">
         <f>H36</f>
-        <v>116.11428571428571</v>
-      </c>
-      <c r="H67" s="117">
+        <v>266.66666666666663</v>
+      </c>
+      <c r="H67" s="112">
         <f>I54</f>
-        <v>5805.7142857142853</v>
+        <v>13333.333333333332</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -4435,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4455,9 +4419,9 @@
       <c r="J1" s="15"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="2:13" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="73">
-        <v>700</v>
+    <row r="2" spans="2:13" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11">
+        <v>660</v>
       </c>
       <c r="C2" s="11">
         <f>$L$3</f>
@@ -4465,13 +4429,13 @@
       </c>
       <c r="D2" s="19">
         <f>$M$3</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E2" s="26">
         <f t="shared" ref="E2:E31" si="0">(B2*D2)/C2</f>
-        <v>4900</v>
-      </c>
-      <c r="F2" s="54"/>
+        <v>5280</v>
+      </c>
+      <c r="F2" s="53"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="J2" s="15"/>
@@ -4486,8 +4450,8 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="74">
-        <v>800</v>
+      <c r="B3" s="127">
+        <v>630</v>
       </c>
       <c r="C3" s="11">
         <f>$L$3</f>
@@ -4495,29 +4459,29 @@
       </c>
       <c r="D3" s="3">
         <f>$M$3</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>5600</v>
-      </c>
-      <c r="F3" s="55"/>
+        <v>5040</v>
+      </c>
+      <c r="F3" s="54"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="J3" s="15"/>
       <c r="K3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="50">
+      <c r="L3" s="49">
         <v>5</v>
       </c>
-      <c r="M3" s="51">
-        <v>35</v>
+      <c r="M3" s="50">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="74">
-        <v>700</v>
+      <c r="B4" s="127">
+        <v>900</v>
       </c>
       <c r="C4" s="11">
         <f>$L$3</f>
@@ -4525,29 +4489,29 @@
       </c>
       <c r="D4" s="3">
         <f>$M$3</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>4900</v>
-      </c>
-      <c r="F4" s="55"/>
+        <v>7200</v>
+      </c>
+      <c r="F4" s="54"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="52">
-        <v>6</v>
-      </c>
-      <c r="M4" s="53">
-        <v>40</v>
+      <c r="L4" s="51">
+        <v>7</v>
+      </c>
+      <c r="M4" s="52">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="74">
-        <v>170</v>
+      <c r="B5" s="127">
+        <v>190</v>
       </c>
       <c r="C5" s="11">
         <f>$L$3</f>
@@ -4555,29 +4519,29 @@
       </c>
       <c r="D5" s="3">
         <f>$M$3</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1190</v>
-      </c>
-      <c r="F5" s="55"/>
+        <v>1520</v>
+      </c>
+      <c r="F5" s="54"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="15"/>
       <c r="K5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="52">
-        <v>9</v>
-      </c>
-      <c r="M5" s="53">
+      <c r="L5" s="51">
+        <v>4</v>
+      </c>
+      <c r="M5" s="52">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="74">
-        <v>370</v>
+      <c r="B6" s="127">
+        <v>390</v>
       </c>
       <c r="C6" s="11">
         <f>$L$3</f>
@@ -4585,15 +4549,15 @@
       </c>
       <c r="D6" s="22">
         <f>$M$3</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>2590</v>
-      </c>
-      <c r="F6" s="56">
+        <v>3120</v>
+      </c>
+      <c r="F6" s="55">
         <f>SUM(E2:E6)</f>
-        <v>19180</v>
+        <v>22160</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
@@ -4601,30 +4565,30 @@
       <c r="K6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="52">
-        <v>10</v>
-      </c>
-      <c r="M6" s="53">
-        <v>70</v>
+      <c r="L6" s="51">
+        <v>6</v>
+      </c>
+      <c r="M6" s="52">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73">
-        <v>500</v>
+      <c r="B7" s="127">
+        <v>490</v>
       </c>
       <c r="C7" s="24">
         <f>$L$4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="19">
         <f>$M$4</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E7" s="26">
         <f t="shared" si="0"/>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="F7" s="57"/>
+        <v>2100</v>
+      </c>
+      <c r="F7" s="56"/>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
       <c r="J7" s="15"/>
@@ -4632,105 +4596,105 @@
         <v>29</v>
       </c>
       <c r="L7" s="14">
-        <v>7</v>
-      </c>
-      <c r="M7" s="62">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="M7" s="60">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="74">
-        <v>240</v>
+      <c r="B8" s="127">
+        <v>810</v>
       </c>
       <c r="C8" s="12">
         <f>$L$4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <f>$M$4</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="F8" s="58"/>
+        <v>3471.4285714285716</v>
+      </c>
+      <c r="F8" s="57"/>
       <c r="G8" s="4"/>
       <c r="H8" s="3"/>
       <c r="J8" s="15"/>
       <c r="K8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="51">
         <v>4</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="52">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="74">
-        <v>450</v>
+      <c r="B9" s="127">
+        <v>300</v>
       </c>
       <c r="C9" s="12">
         <f>$L$4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3">
         <f>$M$4</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F9" s="58"/>
+        <v>1285.7142857142858</v>
+      </c>
+      <c r="F9" s="57"/>
       <c r="G9" s="4"/>
       <c r="H9" s="3"/>
       <c r="J9" s="15"/>
       <c r="K9" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="74">
-        <v>480</v>
+      <c r="B10" s="127">
+        <v>130</v>
       </c>
       <c r="C10" s="12">
         <f>$L$4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3">
         <f>$M$4</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="F10" s="58"/>
+        <v>557.14285714285711</v>
+      </c>
+      <c r="F10" s="57"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
       <c r="J10" s="15"/>
       <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="74">
-        <v>820</v>
+      <c r="B11" s="127">
+        <v>340</v>
       </c>
       <c r="C11" s="25">
         <f>$L$4</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="22">
         <f>$M$4</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>5466.666666666667</v>
-      </c>
-      <c r="F11" s="56">
+        <v>1457.1428571428571</v>
+      </c>
+      <c r="F11" s="55">
         <f>SUM(E7:E11)</f>
-        <v>16600</v>
+        <v>8871.4285714285706</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="3"/>
@@ -4738,12 +4702,12 @@
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="73">
-        <v>800</v>
+      <c r="B12" s="127">
+        <v>400</v>
       </c>
       <c r="C12" s="24">
         <f>$L$5</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" s="19">
         <f>$M$5</f>
@@ -4751,19 +4715,19 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="0"/>
-        <v>5333.333333333333</v>
-      </c>
-      <c r="F12" s="57"/>
+        <v>6000</v>
+      </c>
+      <c r="F12" s="56"/>
       <c r="G12" s="4"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="74">
-        <v>270</v>
+      <c r="B13" s="127">
+        <v>230</v>
       </c>
       <c r="C13" s="12">
         <f>$L$5</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <f>$M$5</f>
@@ -4771,19 +4735,19 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="F13" s="58"/>
+        <v>3450</v>
+      </c>
+      <c r="F13" s="57"/>
       <c r="G13" s="4"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="74">
-        <v>480</v>
+      <c r="B14" s="127">
+        <v>440</v>
       </c>
       <c r="C14" s="12">
         <f>$L$5</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3">
         <f>$M$5</f>
@@ -4791,19 +4755,19 @@
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-      <c r="F14" s="58"/>
+        <v>6600</v>
+      </c>
+      <c r="F14" s="57"/>
       <c r="G14" s="4"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="74">
-        <v>450</v>
+      <c r="B15" s="127">
+        <v>490</v>
       </c>
       <c r="C15" s="12">
         <f>$L$5</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <f>$M$5</f>
@@ -4811,19 +4775,19 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="F15" s="58"/>
+        <v>7350</v>
+      </c>
+      <c r="F15" s="57"/>
       <c r="G15" s="4"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="74">
-        <v>850</v>
+      <c r="B16" s="127">
+        <v>810</v>
       </c>
       <c r="C16" s="25">
         <f>$L$5</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D16" s="22">
         <f>$M$5</f>
@@ -4831,223 +4795,223 @@
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>5666.666666666667</v>
-      </c>
-      <c r="F16" s="56">
+        <v>12150</v>
+      </c>
+      <c r="F16" s="55">
         <f>SUM(E12:E16)</f>
-        <v>19000</v>
+        <v>35550</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="73">
-        <v>600</v>
+      <c r="B17" s="127">
+        <v>100</v>
       </c>
       <c r="C17" s="24">
         <f>$L$6</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="19">
         <f>$M$6</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E17" s="26">
         <f t="shared" si="0"/>
-        <v>4200</v>
-      </c>
-      <c r="F17" s="57"/>
+        <v>500</v>
+      </c>
+      <c r="F17" s="56"/>
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="74">
-        <v>700</v>
+      <c r="B18" s="127">
+        <v>200</v>
       </c>
       <c r="C18" s="12">
         <f>$L$6</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
         <f>$M$6</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>4900</v>
-      </c>
-      <c r="F18" s="58"/>
+        <v>1000</v>
+      </c>
+      <c r="F18" s="57"/>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="74">
-        <v>700</v>
+      <c r="B19" s="127">
+        <v>400</v>
       </c>
       <c r="C19" s="12">
         <f>$L$6</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
         <f>$M$6</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" si="0"/>
-        <v>4900</v>
-      </c>
-      <c r="F19" s="58"/>
+        <v>2000</v>
+      </c>
+      <c r="F19" s="57"/>
       <c r="G19" s="4"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="74">
-        <v>170</v>
+      <c r="B20" s="127">
+        <v>520</v>
       </c>
       <c r="C20" s="12">
         <f>$L$6</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
         <f>$M$6</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="0"/>
-        <v>1190</v>
-      </c>
-      <c r="F20" s="58"/>
+        <v>2600</v>
+      </c>
+      <c r="F20" s="57"/>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="74">
-        <v>370</v>
+      <c r="B21" s="127">
+        <v>780</v>
       </c>
       <c r="C21" s="25">
         <f>$L$6</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" s="22">
         <f>$M$6</f>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>2590</v>
-      </c>
-      <c r="F21" s="56">
+        <v>3900</v>
+      </c>
+      <c r="F21" s="55">
         <f>SUM(E17:E21)</f>
-        <v>17780</v>
+        <v>10000</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="73">
-        <v>550</v>
+      <c r="B22" s="127">
+        <v>300</v>
       </c>
       <c r="C22" s="24">
         <f>$L$7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="19">
         <f>$M$7</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E22" s="26">
         <f t="shared" si="0"/>
-        <v>3928.5714285714284</v>
-      </c>
-      <c r="F22" s="57"/>
+        <v>4200</v>
+      </c>
+      <c r="F22" s="56"/>
       <c r="G22" s="4"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="74">
-        <v>750</v>
+      <c r="B23" s="127">
+        <v>310</v>
       </c>
       <c r="C23" s="12">
         <f>$L$7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <f>$M$7</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="0"/>
-        <v>5357.1428571428569</v>
-      </c>
-      <c r="F23" s="58"/>
+        <v>4340</v>
+      </c>
+      <c r="F23" s="57"/>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="74">
-        <v>600</v>
+      <c r="B24" s="127">
+        <v>530</v>
       </c>
       <c r="C24" s="12">
         <f>$L$7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
         <f>$M$7</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="0"/>
-        <v>4285.7142857142853</v>
-      </c>
-      <c r="F24" s="58"/>
+        <v>7420</v>
+      </c>
+      <c r="F24" s="57"/>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="74">
-        <v>700</v>
+      <c r="B25" s="127">
+        <v>400</v>
       </c>
       <c r="C25" s="12">
         <f>$L$7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3">
         <f>$M$7</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="F25" s="58"/>
+        <v>5600</v>
+      </c>
+      <c r="F25" s="57"/>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="74">
-        <v>700</v>
+      <c r="B26" s="127">
+        <v>800</v>
       </c>
       <c r="C26" s="25">
         <f>$L$7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" s="22">
         <f>$M$7</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="F26" s="56">
+        <v>11200</v>
+      </c>
+      <c r="F26" s="55">
         <f>SUM(E22:E26)</f>
-        <v>23571.428571428572</v>
+        <v>32760</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="73">
+      <c r="B27" s="127">
         <v>200</v>
       </c>
       <c r="C27" s="24">
@@ -5062,13 +5026,13 @@
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="4"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="74">
-        <v>700</v>
+      <c r="B28" s="127">
+        <v>200</v>
       </c>
       <c r="C28" s="12">
         <f>$L$8</f>
@@ -5080,15 +5044,15 @@
       </c>
       <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>6125</v>
-      </c>
-      <c r="F28" s="58"/>
+        <v>1750</v>
+      </c>
+      <c r="F28" s="57"/>
       <c r="G28" s="4"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="74">
-        <v>600</v>
+      <c r="B29" s="127">
+        <v>320</v>
       </c>
       <c r="C29" s="12">
         <f>$L$8</f>
@@ -5100,15 +5064,15 @@
       </c>
       <c r="E29" s="4">
         <f t="shared" si="0"/>
-        <v>5250</v>
-      </c>
-      <c r="F29" s="58"/>
+        <v>2800</v>
+      </c>
+      <c r="F29" s="57"/>
       <c r="G29" s="4"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="74">
-        <v>330</v>
+      <c r="B30" s="127">
+        <v>300</v>
       </c>
       <c r="C30" s="12">
         <f>$L$8</f>
@@ -5120,15 +5084,15 @@
       </c>
       <c r="E30" s="4">
         <f t="shared" si="0"/>
-        <v>2887.5</v>
-      </c>
-      <c r="F30" s="58"/>
+        <v>2625</v>
+      </c>
+      <c r="F30" s="57"/>
       <c r="G30" s="4"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="74">
-        <v>510</v>
+      <c r="B31" s="127">
+        <v>430</v>
       </c>
       <c r="C31" s="25">
         <f>$L$8</f>
@@ -5140,11 +5104,11 @@
       </c>
       <c r="E31" s="6">
         <f t="shared" si="0"/>
-        <v>4462.5</v>
-      </c>
-      <c r="F31" s="56">
+        <v>3762.5</v>
+      </c>
+      <c r="F31" s="55">
         <f>SUM(E27:E31)</f>
-        <v>20475</v>
+        <v>12687.5</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="3"/>

--- a/Zaoch/28/лаб1,3,4.xlsx
+++ b/Zaoch/28/лаб1,3,4.xlsx
@@ -876,98 +876,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,8 +1286,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31:T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,23 +1583,23 @@
         <v>7</v>
       </c>
       <c r="C24" s="46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" s="46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" s="46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" s="46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G24" s="47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" s="62">
         <f>SUM(B24:G24)+1</f>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I24" s="68">
         <v>752</v>
@@ -1625,23 +1625,23 @@
       </c>
       <c r="P24">
         <f>J24*C24</f>
-        <v>6016</v>
+        <v>3008</v>
       </c>
       <c r="Q24">
         <f>D24*K$24</f>
-        <v>3760</v>
+        <v>1504</v>
       </c>
       <c r="R24">
         <f t="shared" ref="R24:S24" si="0">E24*L$24</f>
-        <v>6016</v>
+        <v>2256</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>6768</v>
+        <v>2256</v>
       </c>
       <c r="T24">
         <f>G24*N$24</f>
-        <v>2256</v>
+        <v>1504</v>
       </c>
       <c r="V24" s="2">
         <v>752</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Y24" s="7">
         <f>SUM(O24:V24)</f>
-        <v>30832</v>
+        <v>16544</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -1662,16 +1662,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="46">
+        <v>1</v>
+      </c>
+      <c r="E25" s="46">
         <v>3</v>
       </c>
-      <c r="E25" s="46">
-        <v>8</v>
-      </c>
       <c r="F25" s="46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G25" s="47">
         <v>2</v>
@@ -1700,19 +1700,19 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:T25" si="1">C25*J25</f>
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>2400</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>2400</v>
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="Y25" s="7">
         <f>SUM(O25:V25)</f>
-        <v>22780</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -1736,23 +1736,23 @@
       </c>
       <c r="C26" s="46">
         <f t="shared" ref="C26:G26" si="2">C24</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" s="46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" s="46">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F26" s="46">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="68">
         <v>100</v>
@@ -1768,23 +1768,23 @@
       </c>
       <c r="P26">
         <f t="shared" si="3"/>
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="S26">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V26" s="2">
         <v>100</v>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="Y26" s="7">
         <f>SUM(O26:V26)</f>
-        <v>4100</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1807,23 +1807,23 @@
       </c>
       <c r="C27" s="46">
         <f t="shared" ref="C27:G27" si="4">C24</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27" s="46">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="46">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" s="69">
         <v>650</v>
@@ -1841,23 +1841,23 @@
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>2600</v>
       </c>
       <c r="Q27">
         <f t="shared" si="5"/>
-        <v>3250</v>
+        <v>1300</v>
       </c>
       <c r="R27">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>1950</v>
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>5850</v>
+        <v>1950</v>
       </c>
       <c r="T27">
         <f t="shared" si="5"/>
-        <v>1950</v>
+        <v>1300</v>
       </c>
       <c r="V27" s="2">
         <v>50</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="Y27" s="7">
         <f>SUM(O27:V27)</f>
-        <v>26050</v>
+        <v>13700</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1953,23 +1953,23 @@
       </c>
       <c r="P30" s="59">
         <f t="shared" si="7"/>
-        <v>3010.9285714285716</v>
+        <v>4119.8571428571431</v>
       </c>
       <c r="Q30" s="59">
         <f t="shared" si="7"/>
-        <v>9092</v>
+        <v>19677</v>
       </c>
       <c r="R30" s="59">
         <f t="shared" si="7"/>
-        <v>3552</v>
+        <v>5635.333333333333</v>
       </c>
       <c r="S30" s="59">
         <f t="shared" si="7"/>
-        <v>5942</v>
+        <v>13222</v>
       </c>
       <c r="T30" s="59">
         <f t="shared" si="7"/>
-        <v>5857.833333333333</v>
+        <v>8035.75</v>
       </c>
       <c r="U30" s="27" t="s">
         <v>20</v>
@@ -1994,23 +1994,23 @@
       </c>
       <c r="P31" s="7">
         <f t="shared" si="8"/>
-        <v>24087.428571428572</v>
+        <v>16479.428571428572</v>
       </c>
       <c r="Q31" s="7">
         <f t="shared" si="8"/>
-        <v>45460</v>
+        <v>39354</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>28416</v>
+        <v>16906</v>
       </c>
       <c r="S31" s="7">
         <f t="shared" si="8"/>
-        <v>53478</v>
+        <v>39666</v>
       </c>
       <c r="T31" s="7">
         <f t="shared" si="8"/>
-        <v>17573.5</v>
+        <v>16071.5</v>
       </c>
       <c r="U31" s="27" t="s">
         <v>21</v>
@@ -2035,23 +2035,23 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:G32" si="9">C24</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G32">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>16</v>
@@ -2064,11 +2064,11 @@
     <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W33" s="8">
         <f>SUM(O31:T31,V32)</f>
-        <v>264801.23033910536</v>
+        <v>224263.23033910536</v>
       </c>
       <c r="Y33" s="8">
         <f>SUM(Y24:Y31)</f>
-        <v>264801.23033910536</v>
+        <v>224263.23033910536</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -2078,18 +2078,18 @@
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
       <c r="D34" s="137"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="158"/>
-      <c r="N34" s="146" t="s">
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="148"/>
+      <c r="N34" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="147"/>
+      <c r="O34" s="129"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
@@ -2109,7 +2109,7 @@
       <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="151"/>
+      <c r="D35" s="139"/>
       <c r="E35" s="95" t="s">
         <v>55</v>
       </c>
@@ -2118,10 +2118,10 @@
       <c r="H35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="152"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="142"/>
       <c r="N35" s="31"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2152,7 +2152,7 @@
         <f>B$28/B36</f>
         <v>554</v>
       </c>
-      <c r="D36" s="151"/>
+      <c r="D36" s="139"/>
       <c r="E36" s="80">
         <v>254</v>
       </c>
@@ -2173,8 +2173,8 @@
         <f>F36</f>
         <v>п4</v>
       </c>
-      <c r="K36" s="148"/>
-      <c r="L36" s="152"/>
+      <c r="K36" s="134"/>
+      <c r="L36" s="142"/>
       <c r="M36" s="17"/>
       <c r="N36" s="43" t="s">
         <v>60</v>
@@ -2217,7 +2217,7 @@
         <f>C$28/B37</f>
         <v>295.71428571428567</v>
       </c>
-      <c r="D37" s="151"/>
+      <c r="D37" s="139"/>
       <c r="E37" s="80">
         <v>316.66666666666669</v>
       </c>
@@ -2238,8 +2238,8 @@
         <f t="shared" ref="J37:J41" si="10">F37</f>
         <v>п3</v>
       </c>
-      <c r="K37" s="148"/>
-      <c r="L37" s="152"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="142"/>
       <c r="M37" s="17"/>
       <c r="N37" s="43">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <f>D$28/B38</f>
         <v>592.5</v>
       </c>
-      <c r="D38" s="151"/>
+      <c r="D38" s="139"/>
       <c r="E38" s="80">
         <v>415</v>
       </c>
@@ -2304,8 +2304,8 @@
         <f t="shared" si="10"/>
         <v>п2</v>
       </c>
-      <c r="K38" s="148"/>
-      <c r="L38" s="152"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="142"/>
       <c r="M38" s="17"/>
       <c r="N38" s="120">
         <v>8</v>
@@ -2350,7 +2350,7 @@
         <f>E$28/B39</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="D39" s="151"/>
+      <c r="D39" s="139"/>
       <c r="E39" s="80">
         <v>471.42857142857144</v>
       </c>
@@ -2370,8 +2370,8 @@
         <f t="shared" si="10"/>
         <v>п5</v>
       </c>
-      <c r="K39" s="148"/>
-      <c r="L39" s="152"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="142"/>
       <c r="M39" s="17"/>
       <c r="N39" s="43">
         <v>15</v>
@@ -2405,7 +2405,7 @@
         <f>F$28/B40</f>
         <v>468</v>
       </c>
-      <c r="D40" s="151"/>
+      <c r="D40" s="139"/>
       <c r="E40" s="80">
         <v>548</v>
       </c>
@@ -2426,8 +2426,8 @@
         <f t="shared" si="10"/>
         <v>п1</v>
       </c>
-      <c r="K40" s="148"/>
-      <c r="L40" s="152"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="142"/>
       <c r="M40" s="17"/>
       <c r="N40" s="43">
         <v>17</v>
@@ -2461,7 +2461,7 @@
         <f t="shared" ref="C41" si="12">B$28/B41</f>
         <v>633.14285714285711</v>
       </c>
-      <c r="D41" s="151"/>
+      <c r="D41" s="139"/>
       <c r="E41" s="80">
         <v>548</v>
       </c>
@@ -2482,8 +2482,8 @@
         <f t="shared" si="10"/>
         <v>п6</v>
       </c>
-      <c r="K41" s="148"/>
-      <c r="L41" s="152"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="142"/>
       <c r="M41" s="17"/>
       <c r="N41" s="120">
         <v>19</v>
@@ -2506,18 +2506,18 @@
       <c r="X41" s="17"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="150"/>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="156"/>
+      <c r="A42" s="138"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="146"/>
       <c r="M42" s="17"/>
       <c r="N42" s="43">
         <v>40</v>
@@ -2549,15 +2549,15 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="156"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="146"/>
       <c r="M43" s="17"/>
       <c r="N43" s="120">
         <v>40</v>
@@ -2589,7 +2589,7 @@
       <c r="C44" s="102">
         <v>60</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="139"/>
       <c r="E44" s="73" t="s">
         <v>63</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="K44" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="157"/>
+      <c r="L44" s="147"/>
       <c r="M44" s="17"/>
       <c r="N44" s="31"/>
       <c r="O44" s="17"/>
@@ -2635,7 +2635,7 @@
       <c r="C45" s="102">
         <v>65</v>
       </c>
-      <c r="D45" s="151"/>
+      <c r="D45" s="139"/>
       <c r="E45" s="99">
         <f>A44</f>
         <v>24</v>
@@ -2664,7 +2664,7 @@
         <f>$C$41/$B44</f>
         <v>422.09523809523807</v>
       </c>
-      <c r="L45" s="157"/>
+      <c r="L45" s="147"/>
       <c r="M45" s="17"/>
       <c r="N45" s="73" t="s">
         <v>85</v>
@@ -2704,7 +2704,7 @@
       <c r="C46" s="102">
         <v>50</v>
       </c>
-      <c r="D46" s="151"/>
+      <c r="D46" s="139"/>
       <c r="E46" s="77">
         <f t="shared" ref="E46:E47" si="13">A45</f>
         <v>29</v>
@@ -2733,7 +2733,7 @@
         <f t="shared" ref="K46:K47" si="19">$C$41/$B45</f>
         <v>230.23376623376623</v>
       </c>
-      <c r="L46" s="157"/>
+      <c r="L46" s="147"/>
       <c r="M46" s="17"/>
       <c r="N46" s="93">
         <v>1</v>
@@ -2770,10 +2770,10 @@
       <c r="X46" s="17"/>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="150"/>
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="139"/>
+      <c r="C47" s="139"/>
+      <c r="D47" s="139"/>
       <c r="E47" s="99">
         <f t="shared" si="13"/>
         <v>40</v>
@@ -2802,7 +2802,7 @@
         <f t="shared" si="19"/>
         <v>506.51428571428568</v>
       </c>
-      <c r="L47" s="157"/>
+      <c r="L47" s="147"/>
       <c r="M47" s="17"/>
       <c r="N47" s="43">
         <v>8</v>
@@ -2839,18 +2839,18 @@
       <c r="X47" s="17"/>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="150"/>
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="148"/>
-      <c r="L48" s="152"/>
+      <c r="A48" s="138"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="142"/>
       <c r="M48" s="17"/>
       <c r="N48" s="43">
         <v>15</v>
@@ -2887,18 +2887,18 @@
       <c r="X48" s="17"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="150"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="148"/>
-      <c r="J49" s="148"/>
-      <c r="K49" s="148"/>
-      <c r="L49" s="152"/>
+      <c r="A49" s="138"/>
+      <c r="B49" s="139"/>
+      <c r="C49" s="139"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="142"/>
       <c r="M49" s="17"/>
       <c r="N49" s="43">
         <v>17</v>
@@ -2935,18 +2935,18 @@
       <c r="X49" s="17"/>
     </row>
     <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="150"/>
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="152"/>
+      <c r="A50" s="138"/>
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="142"/>
       <c r="M50" s="17"/>
       <c r="N50" s="43">
         <v>19</v>
@@ -2983,10 +2983,10 @@
       <c r="X50" s="17"/>
     </row>
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="150"/>
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
       <c r="E51" s="73" t="s">
         <v>64</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="K51" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="152"/>
+      <c r="L51" s="142"/>
       <c r="M51" s="17"/>
       <c r="N51" s="97">
         <v>40</v>
@@ -3045,10 +3045,10 @@
       <c r="X51" s="17"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="150"/>
-      <c r="B52" s="151"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
       <c r="E52" s="99">
         <f>A44</f>
         <v>24</v>
@@ -3077,7 +3077,7 @@
         <f t="shared" si="26"/>
         <v>25325.714285714283</v>
       </c>
-      <c r="L52" s="152"/>
+      <c r="L52" s="142"/>
       <c r="M52" s="17"/>
       <c r="N52" s="31"/>
       <c r="O52" s="17"/>
@@ -3092,10 +3092,10 @@
       <c r="X52" s="17"/>
     </row>
     <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="150"/>
-      <c r="B53" s="151"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
+      <c r="A53" s="138"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
       <c r="E53" s="99">
         <f t="shared" ref="E53:E54" si="27">A45</f>
         <v>29</v>
@@ -3124,7 +3124,7 @@
         <f t="shared" si="28"/>
         <v>14965.194805194806</v>
       </c>
-      <c r="L53" s="152"/>
+      <c r="L53" s="142"/>
       <c r="M53" s="17"/>
       <c r="N53" s="43"/>
       <c r="O53" s="17"/>
@@ -3139,10 +3139,10 @@
       <c r="X53" s="17"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="150"/>
-      <c r="B54" s="151"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="139"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
       <c r="E54" s="99">
         <f t="shared" si="27"/>
         <v>40</v>
@@ -3171,7 +3171,7 @@
         <f t="shared" si="29"/>
         <v>25325.714285714283</v>
       </c>
-      <c r="L54" s="152"/>
+      <c r="L54" s="142"/>
       <c r="M54" s="17"/>
       <c r="N54" s="43"/>
       <c r="O54" s="17"/>
@@ -3186,18 +3186,18 @@
       <c r="X54" s="17"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="139"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
-      <c r="K55" s="154"/>
-      <c r="L55" s="153"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="143"/>
       <c r="M55" s="17"/>
       <c r="N55" s="97"/>
       <c r="O55" s="98"/>
@@ -3219,7 +3219,7 @@
       <c r="E56" s="137"/>
       <c r="F56" s="137"/>
       <c r="G56" s="137"/>
-      <c r="H56" s="138"/>
+      <c r="H56" s="151"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
@@ -3235,7 +3235,7 @@
       <c r="Q56" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="128" t="s">
+      <c r="R56" s="157" t="s">
         <v>70</v>
       </c>
       <c r="S56" s="130" t="s">
@@ -3248,14 +3248,14 @@
       <c r="X56" s="17"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="139"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="141"/>
+      <c r="A57" s="140"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="152"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
@@ -3269,7 +3269,7 @@
       <c r="Q57" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="129"/>
+      <c r="R57" s="158"/>
       <c r="S57" s="132" t="s">
         <v>72</v>
       </c>
@@ -3283,38 +3283,38 @@
       <c r="A58" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="142" t="s">
+      <c r="B58" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="143"/>
+      <c r="C58" s="154"/>
       <c r="D58" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="142" t="s">
+      <c r="E58" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="143"/>
-      <c r="G58" s="142" t="s">
+      <c r="F58" s="154"/>
+      <c r="G58" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="143"/>
+      <c r="H58" s="154"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" s="105"/>
-      <c r="O58" s="134" t="s">
+      <c r="O58" s="149" t="s">
         <v>90</v>
       </c>
       <c r="P58" s="108" t="s">
         <v>74</v>
       </c>
       <c r="Q58" s="109"/>
-      <c r="R58" s="134" t="s">
+      <c r="R58" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="134" t="s">
+      <c r="S58" s="149" t="s">
         <v>78</v>
       </c>
       <c r="T58" s="108" t="s">
@@ -3329,30 +3329,30 @@
       <c r="A59" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="144"/>
-      <c r="C59" s="145"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
       <c r="D59" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="144"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="144" t="s">
+      <c r="E59" s="155"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="145"/>
+      <c r="H59" s="156"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="106"/>
-      <c r="O59" s="135"/>
+      <c r="O59" s="150"/>
       <c r="P59" s="60" t="s">
         <v>75</v>
       </c>
       <c r="Q59" s="110"/>
-      <c r="R59" s="135"/>
-      <c r="S59" s="135"/>
+      <c r="R59" s="150"/>
+      <c r="S59" s="150"/>
       <c r="T59" s="60" t="s">
         <v>79</v>
       </c>
@@ -3363,20 +3363,20 @@
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="105"/>
-      <c r="B60" s="134" t="s">
+      <c r="B60" s="149" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="108" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="109"/>
-      <c r="E60" s="134" t="s">
+      <c r="E60" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="134" t="s">
+      <c r="F60" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="134" t="s">
+      <c r="G60" s="149" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="108" t="s">
@@ -3415,14 +3415,14 @@
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="106"/>
-      <c r="B61" s="135"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="110"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="150"/>
+      <c r="G61" s="150"/>
       <c r="H61" s="60" t="s">
         <v>79</v>
       </c>
@@ -4360,6 +4360,21 @@
     <sortCondition ref="E36:E41"/>
   </sortState>
   <mergeCells count="29">
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="O56:P57"/>
     <mergeCell ref="I34:J35"/>
@@ -4374,21 +4389,6 @@
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
     <mergeCell ref="K34:L41"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A56:H57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="R58:R59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Zaoch/28/лаб1,3,4.xlsx
+++ b/Zaoch/28/лаб1,3,4.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\Desktop\PAS\Zaoch\28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\Desktop\PAS\Zaoch\28\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A784FA-69A6-4D5F-B448-0CBFCADB8748}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лаба" sheetId="1" r:id="rId1"/>
     <sheet name="Стоимость_разработки" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -876,48 +877,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,36 +969,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,12 +1283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31:T31"/>
+    <sheetView tabSelected="1" topLeftCell="O15" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,23 +1584,23 @@
         <v>7</v>
       </c>
       <c r="C24" s="46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D24" s="46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="46">
+        <v>8</v>
+      </c>
+      <c r="F24" s="46">
+        <v>9</v>
+      </c>
+      <c r="G24" s="47">
         <v>3</v>
-      </c>
-      <c r="F24" s="46">
-        <v>3</v>
-      </c>
-      <c r="G24" s="47">
-        <v>2</v>
       </c>
       <c r="H24" s="62">
         <f>SUM(B24:G24)+1</f>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I24" s="68">
         <v>752</v>
@@ -1625,23 +1626,23 @@
       </c>
       <c r="P24">
         <f>J24*C24</f>
-        <v>3008</v>
+        <v>6016</v>
       </c>
       <c r="Q24">
         <f>D24*K$24</f>
-        <v>1504</v>
+        <v>3760</v>
       </c>
       <c r="R24">
         <f t="shared" ref="R24:S24" si="0">E24*L$24</f>
-        <v>2256</v>
+        <v>6016</v>
       </c>
       <c r="S24">
         <f t="shared" si="0"/>
-        <v>2256</v>
+        <v>6768</v>
       </c>
       <c r="T24">
         <f>G24*N$24</f>
-        <v>1504</v>
+        <v>2256</v>
       </c>
       <c r="V24" s="2">
         <v>752</v>
@@ -1651,7 +1652,7 @@
       </c>
       <c r="Y24" s="7">
         <f>SUM(O24:V24)</f>
-        <v>16544</v>
+        <v>30832</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
@@ -1662,16 +1663,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" s="46">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F25" s="46">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G25" s="47">
         <v>2</v>
@@ -1700,19 +1701,19 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:T25" si="1">C25*J25</f>
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="Q25">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="R25">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>6400</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>7200</v>
       </c>
       <c r="T25">
         <f t="shared" si="1"/>
@@ -1723,7 +1724,7 @@
       </c>
       <c r="Y25" s="7">
         <f>SUM(O25:V25)</f>
-        <v>10780</v>
+        <v>22780</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -1736,23 +1737,23 @@
       </c>
       <c r="C26" s="46">
         <f t="shared" ref="C26:G26" si="2">C24</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D26" s="46">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="46">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F26" s="46">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G26" s="46">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="68">
         <v>100</v>
@@ -1768,23 +1769,23 @@
       </c>
       <c r="P26">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="Q26">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="S26">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="T26">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V26" s="2">
         <v>100</v>
@@ -1794,7 +1795,7 @@
       </c>
       <c r="Y26" s="7">
         <f>SUM(O26:V26)</f>
-        <v>2200</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1807,23 +1808,23 @@
       </c>
       <c r="C27" s="46">
         <f t="shared" ref="C27:G27" si="4">C24</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D27" s="46">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="46">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F27" s="46">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G27" s="46">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="69">
         <v>650</v>
@@ -1841,23 +1842,23 @@
       </c>
       <c r="P27">
         <f t="shared" si="5"/>
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="Q27">
         <f t="shared" si="5"/>
-        <v>1300</v>
+        <v>3250</v>
       </c>
       <c r="R27">
         <f t="shared" si="5"/>
-        <v>1950</v>
+        <v>5200</v>
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>1950</v>
+        <v>5850</v>
       </c>
       <c r="T27">
         <f t="shared" si="5"/>
-        <v>1300</v>
+        <v>1950</v>
       </c>
       <c r="V27" s="2">
         <v>50</v>
@@ -1867,7 +1868,7 @@
       </c>
       <c r="Y27" s="7">
         <f>SUM(O27:V27)</f>
-        <v>13700</v>
+        <v>26050</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1934,13 +1935,13 @@
         <v>19</v>
       </c>
       <c r="V29" s="45">
-        <f>T46</f>
-        <v>12194.222222222223</v>
+        <f>C4</f>
+        <v>21949.599999999999</v>
       </c>
       <c r="W29" s="34"/>
       <c r="Y29" s="45">
         <f>V29</f>
-        <v>12194.222222222223</v>
+        <v>21949.599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -1953,35 +1954,35 @@
       </c>
       <c r="P30" s="59">
         <f t="shared" si="7"/>
-        <v>4119.8571428571431</v>
+        <v>3010.9285714285716</v>
       </c>
       <c r="Q30" s="59">
         <f t="shared" si="7"/>
-        <v>19677</v>
+        <v>9092</v>
       </c>
       <c r="R30" s="59">
         <f t="shared" si="7"/>
-        <v>5635.333333333333</v>
+        <v>3552</v>
       </c>
       <c r="S30" s="59">
         <f t="shared" si="7"/>
-        <v>13222</v>
+        <v>5942</v>
       </c>
       <c r="T30" s="59">
         <f t="shared" si="7"/>
-        <v>8035.75</v>
+        <v>5857.833333333333</v>
       </c>
       <c r="U30" s="27" t="s">
         <v>20</v>
       </c>
       <c r="V30" s="45">
-        <f>U51</f>
-        <v>40390.625</v>
+        <f>C11</f>
+        <v>86166.666666666672</v>
       </c>
       <c r="W30" s="34"/>
       <c r="Y30" s="45">
         <f>V30</f>
-        <v>40390.625</v>
+        <v>86166.666666666672</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -1994,35 +1995,35 @@
       </c>
       <c r="P31" s="7">
         <f t="shared" si="8"/>
-        <v>16479.428571428572</v>
+        <v>24087.428571428572</v>
       </c>
       <c r="Q31" s="7">
         <f t="shared" si="8"/>
-        <v>39354</v>
+        <v>45460</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="8"/>
-        <v>16906</v>
+        <v>28416</v>
       </c>
       <c r="S31" s="7">
         <f t="shared" si="8"/>
-        <v>39666</v>
+        <v>53478</v>
       </c>
       <c r="T31" s="7">
         <f t="shared" si="8"/>
-        <v>16071.5</v>
+        <v>17573.5</v>
       </c>
       <c r="U31" s="27" t="s">
         <v>21</v>
       </c>
       <c r="V31" s="45">
-        <f>V50</f>
-        <v>6425.454545454545</v>
+        <f>C18</f>
+        <v>17670</v>
       </c>
       <c r="W31" s="34"/>
       <c r="Y31" s="45">
         <f>V31</f>
-        <v>6425.454545454545</v>
+        <v>17670</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
@@ -2035,40 +2036,40 @@
       </c>
       <c r="C32">
         <f t="shared" ref="C32:G32" si="9">C24</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D32">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F32">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="V32" s="44">
         <f>SUM(V24:V31)</f>
-        <v>59912.301767676763</v>
+        <v>126688.26666666666</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="W33" s="8">
         <f>SUM(O31:T31,V32)</f>
-        <v>224263.23033910536</v>
+        <v>331577.19523809524</v>
       </c>
       <c r="Y33" s="8">
         <f>SUM(Y24:Y31)</f>
-        <v>224263.23033910536</v>
+        <v>331577.19523809524</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
@@ -2078,18 +2079,18 @@
       <c r="B34" s="137"/>
       <c r="C34" s="137"/>
       <c r="D34" s="137"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="148"/>
-      <c r="N34" s="128" t="s">
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="158"/>
+      <c r="N34" s="146" t="s">
         <v>81</v>
       </c>
-      <c r="O34" s="129"/>
+      <c r="O34" s="147"/>
       <c r="P34" s="19"/>
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
@@ -2109,7 +2110,7 @@
       <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="139"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="95" t="s">
         <v>55</v>
       </c>
@@ -2118,10 +2119,10 @@
       <c r="H35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I35" s="134"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="142"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="152"/>
       <c r="N35" s="31"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -2152,7 +2153,7 @@
         <f>B$28/B36</f>
         <v>554</v>
       </c>
-      <c r="D36" s="139"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="80">
         <v>254</v>
       </c>
@@ -2173,8 +2174,8 @@
         <f>F36</f>
         <v>п4</v>
       </c>
-      <c r="K36" s="134"/>
-      <c r="L36" s="142"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="152"/>
       <c r="M36" s="17"/>
       <c r="N36" s="43" t="s">
         <v>60</v>
@@ -2217,7 +2218,7 @@
         <f>C$28/B37</f>
         <v>295.71428571428567</v>
       </c>
-      <c r="D37" s="139"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="80">
         <v>316.66666666666669</v>
       </c>
@@ -2238,8 +2239,8 @@
         <f t="shared" ref="J37:J41" si="10">F37</f>
         <v>п3</v>
       </c>
-      <c r="K37" s="134"/>
-      <c r="L37" s="142"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="152"/>
       <c r="M37" s="17"/>
       <c r="N37" s="43">
         <v>1</v>
@@ -2284,7 +2285,7 @@
         <f>D$28/B38</f>
         <v>592.5</v>
       </c>
-      <c r="D38" s="139"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="80">
         <v>415</v>
       </c>
@@ -2304,8 +2305,8 @@
         <f t="shared" si="10"/>
         <v>п2</v>
       </c>
-      <c r="K38" s="134"/>
-      <c r="L38" s="142"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="152"/>
       <c r="M38" s="17"/>
       <c r="N38" s="120">
         <v>8</v>
@@ -2350,7 +2351,7 @@
         <f>E$28/B39</f>
         <v>333.33333333333331</v>
       </c>
-      <c r="D39" s="139"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="80">
         <v>471.42857142857144</v>
       </c>
@@ -2370,8 +2371,8 @@
         <f t="shared" si="10"/>
         <v>п5</v>
       </c>
-      <c r="K39" s="134"/>
-      <c r="L39" s="142"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="152"/>
       <c r="M39" s="17"/>
       <c r="N39" s="43">
         <v>15</v>
@@ -2405,7 +2406,7 @@
         <f>F$28/B40</f>
         <v>468</v>
       </c>
-      <c r="D40" s="139"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="80">
         <v>548</v>
       </c>
@@ -2426,8 +2427,8 @@
         <f t="shared" si="10"/>
         <v>п1</v>
       </c>
-      <c r="K40" s="134"/>
-      <c r="L40" s="142"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="152"/>
       <c r="M40" s="17"/>
       <c r="N40" s="43">
         <v>17</v>
@@ -2461,7 +2462,7 @@
         <f t="shared" ref="C41" si="12">B$28/B41</f>
         <v>633.14285714285711</v>
       </c>
-      <c r="D41" s="139"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="80">
         <v>548</v>
       </c>
@@ -2482,8 +2483,8 @@
         <f t="shared" si="10"/>
         <v>п6</v>
       </c>
-      <c r="K41" s="134"/>
-      <c r="L41" s="142"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="152"/>
       <c r="M41" s="17"/>
       <c r="N41" s="120">
         <v>19</v>
@@ -2506,18 +2507,18 @@
       <c r="X41" s="17"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="138"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="146"/>
+      <c r="A42" s="150"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="156"/>
       <c r="M42" s="17"/>
       <c r="N42" s="43">
         <v>40</v>
@@ -2549,15 +2550,15 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="139"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="146"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="156"/>
       <c r="M43" s="17"/>
       <c r="N43" s="120">
         <v>40</v>
@@ -2589,7 +2590,7 @@
       <c r="C44" s="102">
         <v>60</v>
       </c>
-      <c r="D44" s="139"/>
+      <c r="D44" s="151"/>
       <c r="E44" s="73" t="s">
         <v>63</v>
       </c>
@@ -2611,7 +2612,7 @@
       <c r="K44" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L44" s="147"/>
+      <c r="L44" s="157"/>
       <c r="M44" s="17"/>
       <c r="N44" s="31"/>
       <c r="O44" s="17"/>
@@ -2635,7 +2636,7 @@
       <c r="C45" s="102">
         <v>65</v>
       </c>
-      <c r="D45" s="139"/>
+      <c r="D45" s="151"/>
       <c r="E45" s="99">
         <f>A44</f>
         <v>24</v>
@@ -2664,7 +2665,7 @@
         <f>$C$41/$B44</f>
         <v>422.09523809523807</v>
       </c>
-      <c r="L45" s="147"/>
+      <c r="L45" s="157"/>
       <c r="M45" s="17"/>
       <c r="N45" s="73" t="s">
         <v>85</v>
@@ -2704,7 +2705,7 @@
       <c r="C46" s="102">
         <v>50</v>
       </c>
-      <c r="D46" s="139"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="77">
         <f t="shared" ref="E46:E47" si="13">A45</f>
         <v>29</v>
@@ -2733,7 +2734,7 @@
         <f t="shared" ref="K46:K47" si="19">$C$41/$B45</f>
         <v>230.23376623376623</v>
       </c>
-      <c r="L46" s="147"/>
+      <c r="L46" s="157"/>
       <c r="M46" s="17"/>
       <c r="N46" s="93">
         <v>1</v>
@@ -2770,10 +2771,10 @@
       <c r="X46" s="17"/>
     </row>
     <row r="47" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="138"/>
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
+      <c r="A47" s="150"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="99">
         <f t="shared" si="13"/>
         <v>40</v>
@@ -2802,7 +2803,7 @@
         <f t="shared" si="19"/>
         <v>506.51428571428568</v>
       </c>
-      <c r="L47" s="147"/>
+      <c r="L47" s="157"/>
       <c r="M47" s="17"/>
       <c r="N47" s="43">
         <v>8</v>
@@ -2839,18 +2840,18 @@
       <c r="X47" s="17"/>
     </row>
     <row r="48" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="138"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="142"/>
+      <c r="A48" s="150"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="152"/>
       <c r="M48" s="17"/>
       <c r="N48" s="43">
         <v>15</v>
@@ -2887,18 +2888,18 @@
       <c r="X48" s="17"/>
     </row>
     <row r="49" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="138"/>
-      <c r="B49" s="139"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="142"/>
+      <c r="A49" s="150"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="152"/>
       <c r="M49" s="17"/>
       <c r="N49" s="43">
         <v>17</v>
@@ -2935,18 +2936,18 @@
       <c r="X49" s="17"/>
     </row>
     <row r="50" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="138"/>
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="142"/>
+      <c r="A50" s="150"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="152"/>
       <c r="M50" s="17"/>
       <c r="N50" s="43">
         <v>19</v>
@@ -2983,10 +2984,10 @@
       <c r="X50" s="17"/>
     </row>
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="138"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
+      <c r="A51" s="150"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
       <c r="E51" s="73" t="s">
         <v>64</v>
       </c>
@@ -3008,7 +3009,7 @@
       <c r="K51" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="L51" s="142"/>
+      <c r="L51" s="152"/>
       <c r="M51" s="17"/>
       <c r="N51" s="97">
         <v>40</v>
@@ -3045,10 +3046,10 @@
       <c r="X51" s="17"/>
     </row>
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="138"/>
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
+      <c r="A52" s="150"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="99">
         <f>A44</f>
         <v>24</v>
@@ -3077,7 +3078,7 @@
         <f t="shared" si="26"/>
         <v>25325.714285714283</v>
       </c>
-      <c r="L52" s="142"/>
+      <c r="L52" s="152"/>
       <c r="M52" s="17"/>
       <c r="N52" s="31"/>
       <c r="O52" s="17"/>
@@ -3092,10 +3093,10 @@
       <c r="X52" s="17"/>
     </row>
     <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="138"/>
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
+      <c r="A53" s="150"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="99">
         <f t="shared" ref="E53:E54" si="27">A45</f>
         <v>29</v>
@@ -3124,7 +3125,7 @@
         <f t="shared" si="28"/>
         <v>14965.194805194806</v>
       </c>
-      <c r="L53" s="142"/>
+      <c r="L53" s="152"/>
       <c r="M53" s="17"/>
       <c r="N53" s="43"/>
       <c r="O53" s="17"/>
@@ -3139,10 +3140,10 @@
       <c r="X53" s="17"/>
     </row>
     <row r="54" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="138"/>
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
+      <c r="A54" s="150"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="99">
         <f t="shared" si="27"/>
         <v>40</v>
@@ -3171,7 +3172,7 @@
         <f t="shared" si="29"/>
         <v>25325.714285714283</v>
       </c>
-      <c r="L54" s="142"/>
+      <c r="L54" s="152"/>
       <c r="M54" s="17"/>
       <c r="N54" s="43"/>
       <c r="O54" s="17"/>
@@ -3186,18 +3187,18 @@
       <c r="X54" s="17"/>
     </row>
     <row r="55" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="140"/>
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="143"/>
+      <c r="A55" s="139"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="153"/>
       <c r="M55" s="17"/>
       <c r="N55" s="97"/>
       <c r="O55" s="98"/>
@@ -3219,7 +3220,7 @@
       <c r="E56" s="137"/>
       <c r="F56" s="137"/>
       <c r="G56" s="137"/>
-      <c r="H56" s="151"/>
+      <c r="H56" s="138"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
       <c r="K56" s="17"/>
@@ -3235,7 +3236,7 @@
       <c r="Q56" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="R56" s="157" t="s">
+      <c r="R56" s="128" t="s">
         <v>70</v>
       </c>
       <c r="S56" s="130" t="s">
@@ -3248,14 +3249,14 @@
       <c r="X56" s="17"/>
     </row>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="140"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="141"/>
-      <c r="H57" s="152"/>
+      <c r="A57" s="139"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="141"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
@@ -3269,7 +3270,7 @@
       <c r="Q57" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="R57" s="158"/>
+      <c r="R57" s="129"/>
       <c r="S57" s="132" t="s">
         <v>72</v>
       </c>
@@ -3283,38 +3284,38 @@
       <c r="A58" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="153" t="s">
+      <c r="B58" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="154"/>
+      <c r="C58" s="143"/>
       <c r="D58" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="153" t="s">
+      <c r="E58" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="154"/>
-      <c r="G58" s="153" t="s">
+      <c r="F58" s="143"/>
+      <c r="G58" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="154"/>
+      <c r="H58" s="143"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" s="105"/>
-      <c r="O58" s="149" t="s">
+      <c r="O58" s="134" t="s">
         <v>90</v>
       </c>
       <c r="P58" s="108" t="s">
         <v>74</v>
       </c>
       <c r="Q58" s="109"/>
-      <c r="R58" s="149" t="s">
+      <c r="R58" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="S58" s="149" t="s">
+      <c r="S58" s="134" t="s">
         <v>78</v>
       </c>
       <c r="T58" s="108" t="s">
@@ -3329,30 +3330,30 @@
       <c r="A59" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="155"/>
-      <c r="C59" s="156"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="145"/>
       <c r="D59" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="155"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="155" t="s">
+      <c r="E59" s="144"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="144" t="s">
         <v>72</v>
       </c>
-      <c r="H59" s="156"/>
+      <c r="H59" s="145"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17"/>
       <c r="M59" s="17"/>
       <c r="N59" s="106"/>
-      <c r="O59" s="150"/>
+      <c r="O59" s="135"/>
       <c r="P59" s="60" t="s">
         <v>75</v>
       </c>
       <c r="Q59" s="110"/>
-      <c r="R59" s="150"/>
-      <c r="S59" s="150"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
       <c r="T59" s="60" t="s">
         <v>79</v>
       </c>
@@ -3363,20 +3364,20 @@
     </row>
     <row r="60" spans="1:24" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="105"/>
-      <c r="B60" s="149" t="s">
+      <c r="B60" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="108" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="109"/>
-      <c r="E60" s="149" t="s">
+      <c r="E60" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="149" t="s">
+      <c r="F60" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="G60" s="149" t="s">
+      <c r="G60" s="134" t="s">
         <v>78</v>
       </c>
       <c r="H60" s="108" t="s">
@@ -3415,14 +3416,14 @@
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="106"/>
-      <c r="B61" s="150"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="60" t="s">
         <v>75</v>
       </c>
       <c r="D61" s="110"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
       <c r="H61" s="60" t="s">
         <v>79</v>
       </c>
@@ -4360,21 +4361,6 @@
     <sortCondition ref="E36:E41"/>
   </sortState>
   <mergeCells count="29">
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="S58:S59"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="A56:H57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
     <mergeCell ref="N34:O34"/>
     <mergeCell ref="O56:P57"/>
     <mergeCell ref="I34:J35"/>
@@ -4389,6 +4375,21 @@
     <mergeCell ref="E42:L43"/>
     <mergeCell ref="L44:L47"/>
     <mergeCell ref="K34:L41"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="A56:H57"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="S58:S59"/>
+    <mergeCell ref="R58:R59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4396,11 +4397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M31"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
